--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{96F1DA73-2535-456D-B7C9-12D8D480C797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8C94E3FE-B2C6-418E-A168-B7BFECF42E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="14235"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="65">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>% Ventilator Cases Weekly Change</t>
-  </si>
-  <si>
-    <t>% Ventilator Cases</t>
   </si>
   <si>
     <t>Metric Catergory - Sort</t>
@@ -779,8 +776,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Metrics" displayName="Metrics" ref="A1:F53" totalsRowShown="0">
-  <autoFilter ref="A1:F53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Metrics" displayName="Metrics" ref="A1:F52" totalsRowShown="0">
+  <autoFilter ref="A1:F52"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Metric Catergory"/>
     <tableColumn id="6" name="Metric Catergory - Sort"/>
@@ -1090,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:B53"/>
+      <selection activeCell="F45" sqref="F45:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1110,7 +1107,7 @@
         <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
         <v>43</v>
@@ -1353,8 +1350,8 @@
       <c r="E13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="1">
-        <v>0</v>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1373,8 +1370,8 @@
       <c r="E14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
+      <c r="F14" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1393,8 +1390,8 @@
       <c r="E15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="1">
-        <v>0</v>
+      <c r="F15" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -1413,8 +1410,8 @@
       <c r="E16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
+      <c r="F16" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -1433,8 +1430,8 @@
       <c r="E17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="1">
-        <v>0</v>
+      <c r="F17" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -1453,8 +1450,8 @@
       <c r="E18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="1">
-        <v>0</v>
+      <c r="F18" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -1473,8 +1470,8 @@
       <c r="E19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -1493,8 +1490,8 @@
       <c r="E20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="1">
-        <v>0</v>
+      <c r="F20" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -1553,20 +1550,22 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>230</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -1577,10 +1576,10 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>42</v>
@@ -1597,10 +1596,10 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>42</v>
@@ -1617,10 +1616,10 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>42</v>
@@ -1637,10 +1636,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>42</v>
@@ -1657,10 +1656,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>42</v>
@@ -1677,10 +1676,10 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>42</v>
@@ -1697,10 +1696,10 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>42</v>
@@ -1717,10 +1716,10 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>42</v>
@@ -1737,10 +1736,10 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>42</v>
@@ -1757,10 +1756,10 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>42</v>
@@ -1771,22 +1770,22 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
         <v>30</v>
       </c>
-      <c r="C35" t="s">
-        <v>29</v>
-      </c>
       <c r="D35">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>42</v>
+      <c r="F35" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -1797,10 +1796,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>42</v>
@@ -1817,10 +1816,10 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D37">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>42</v>
@@ -1837,17 +1836,15 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
@@ -1857,10 +1854,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>42</v>
@@ -1875,10 +1872,10 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D40">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>42</v>
@@ -1887,16 +1884,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>42</v>
@@ -1911,10 +1908,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D42">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>42</v>
@@ -1929,10 +1926,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D43">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>42</v>
@@ -1947,10 +1944,10 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D44">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>42</v>
@@ -1959,21 +1956,21 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B45">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D45">
-        <v>440</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F45" s="1"/>
+        <v>450</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
@@ -1986,11 +1983,11 @@
         <v>60</v>
       </c>
       <c r="D46">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="1">
-        <v>0</v>
+      <c r="F46" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -2000,15 +1997,15 @@
       <c r="B47">
         <v>60</v>
       </c>
-      <c r="C47" t="s">
-        <v>61</v>
+      <c r="C47" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D47">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="1">
-        <v>0</v>
+      <c r="F47" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
@@ -2022,11 +2019,11 @@
         <v>58</v>
       </c>
       <c r="D48">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="1">
-        <v>0</v>
+      <c r="F48" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -2037,14 +2034,14 @@
         <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D49">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="1">
-        <v>0</v>
+      <c r="F49" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -2055,37 +2052,37 @@
         <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D50">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="1">
-        <v>0</v>
+      <c r="F50" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B51">
-        <v>60</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
       </c>
       <c r="D51">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="1">
-        <v>0</v>
+      <c r="F51" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>70</v>
@@ -2094,29 +2091,11 @@
         <v>64</v>
       </c>
       <c r="D52">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53">
-        <v>70</v>
-      </c>
-      <c r="C53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53">
-        <v>520</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1">
-        <v>0</v>
+      <c r="F52" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8C94E3FE-B2C6-418E-A168-B7BFECF42E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD8361-E8F3-4FF7-9E3A-263C43975F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="72">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -196,18 +196,9 @@
     <t># Aged Care Staff Cases</t>
   </si>
   <si>
-    <t># Aged Care Staff Cases per 1M</t>
-  </si>
-  <si>
     <t># Aged Care Active Outbreaks</t>
   </si>
   <si>
-    <t># Aged Care Active Outbreaks per 1M</t>
-  </si>
-  <si>
-    <t># Aged Care Resident Cases per 1M</t>
-  </si>
-  <si>
     <t>Treatments</t>
   </si>
   <si>
@@ -215,12 +206,42 @@
   </si>
   <si>
     <t># Weekly PBS Scripts per 1M</t>
+  </si>
+  <si>
+    <t># Aged Care Active Outbreaks (7-day avg)</t>
+  </si>
+  <si>
+    <t># Aged Care Active Outbreaks (7-day avg) per 1M</t>
+  </si>
+  <si>
+    <t>% Aged Care Active Outbreaks Weekly Change</t>
+  </si>
+  <si>
+    <t># Aged Care Staff Cases (7-day avg)</t>
+  </si>
+  <si>
+    <t># Aged Care Staff Cases (7-day avg) per 1M</t>
+  </si>
+  <si>
+    <t># Aged Care Resident Cases (7-day avg)</t>
+  </si>
+  <si>
+    <t># Aged Care Resident Cases (7-day avg) per 1M</t>
+  </si>
+  <si>
+    <t>% Aged Care Staff Cases Weekly Change</t>
+  </si>
+  <si>
+    <t>% Aged Care Resident Cases Weekly Change</t>
+  </si>
+  <si>
+    <t>% Weekly PBS Scripts Change</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -709,7 +730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -776,15 +797,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Metrics" displayName="Metrics" ref="A1:F52" totalsRowShown="0">
-  <autoFilter ref="A1:F52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F59" totalsRowShown="0">
+  <autoFilter ref="A1:F59" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Metric Catergory"/>
-    <tableColumn id="6" name="Metric Catergory - Sort"/>
-    <tableColumn id="5" name="Metric"/>
-    <tableColumn id="4" name="Metric - Sort"/>
-    <tableColumn id="2" name="covidlive.com.au" dataDxfId="1"/>
-    <tableColumn id="3" name="health.gov.au" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Metric Catergory"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Metric Catergory - Sort"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Metric"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Metric - Sort"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="covidlive.com.au" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="health.gov.au" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1086,18 +1107,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45:F52"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.73046875" customWidth="1"/>
+    <col min="3" max="3" width="41.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.796875" customWidth="1"/>
     <col min="5" max="5" width="14.1328125" customWidth="1"/>
   </cols>
@@ -1961,8 +1982,8 @@
       <c r="B45">
         <v>60</v>
       </c>
-      <c r="C45" t="s">
-        <v>59</v>
+      <c r="C45" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D45">
         <v>450</v>
@@ -1979,8 +2000,8 @@
       <c r="B46">
         <v>60</v>
       </c>
-      <c r="C46" t="s">
-        <v>60</v>
+      <c r="C46" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D46">
         <v>460</v>
@@ -1998,7 +2019,7 @@
         <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D47">
         <v>470</v>
@@ -2016,7 +2037,7 @@
         <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D48">
         <v>480</v>
@@ -2034,7 +2055,7 @@
         <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D49">
         <v>490</v>
@@ -2052,7 +2073,7 @@
         <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D50">
         <v>500</v>
@@ -2064,13 +2085,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>70</v>
-      </c>
-      <c r="C51" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D51">
         <v>510</v>
@@ -2082,19 +2103,145 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>70</v>
-      </c>
-      <c r="C52" t="s">
-        <v>64</v>
+        <v>60</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D52">
         <v>520</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>60</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53">
+        <v>530</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>60</v>
+      </c>
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54">
+        <v>540</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55">
+        <v>550</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56">
+        <v>560</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57">
+        <v>570</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>70</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58">
+        <v>580</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>70</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59">
+        <v>590</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD8361-E8F3-4FF7-9E3A-263C43975F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264E9373-7292-4A0A-A965-EA5B33A9CA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28995" yWindow="-195" windowWidth="29190" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>% Weekly PBS Scripts Change</t>
+  </si>
+  <si>
+    <t># Cases (Cumulative)</t>
   </si>
 </sst>
 </file>
@@ -797,8 +800,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F59" totalsRowShown="0">
-  <autoFilter ref="A1:F59" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F60" totalsRowShown="0">
+  <autoFilter ref="A1:F60" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Metric Catergory"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Metric Catergory - Sort"/>
@@ -1108,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1191,7 +1194,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>30</v>
@@ -1199,7 +1202,9 @@
       <c r="E4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -1209,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -1227,7 +1232,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -1235,9 +1240,7 @@
       <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -1247,7 +1250,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>60</v>
@@ -1267,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>70</v>
@@ -1275,7 +1278,9 @@
       <c r="E8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -1285,7 +1290,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>80</v>
@@ -1293,9 +1298,7 @@
       <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -1305,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>90</v>
@@ -1313,7 +1316,9 @@
       <c r="E10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -1323,7 +1328,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>100</v>
@@ -1331,9 +1336,7 @@
       <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -1343,7 +1346,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>110</v>
@@ -1357,13 +1360,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>120</v>
@@ -1383,7 +1386,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>130</v>
@@ -1403,7 +1406,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>140</v>
@@ -1423,7 +1426,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>150</v>
@@ -1443,7 +1446,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>160</v>
@@ -1463,7 +1466,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>170</v>
@@ -1483,7 +1486,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>180</v>
@@ -1503,7 +1506,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20">
         <v>190</v>
@@ -1523,14 +1526,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>200</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1">
-        <v>0</v>
+      <c r="E21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -1541,7 +1546,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22">
         <v>210</v>
@@ -1559,7 +1564,7 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23">
         <v>220</v>
@@ -1571,22 +1576,20 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D24">
-        <v>240</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>42</v>
+        <v>230</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -1597,10 +1600,10 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>42</v>
@@ -1617,10 +1620,10 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>42</v>
@@ -1637,10 +1640,10 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>42</v>
@@ -1657,10 +1660,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>42</v>
@@ -1677,10 +1680,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>42</v>
@@ -1697,10 +1700,10 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>42</v>
@@ -1717,10 +1720,10 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>42</v>
@@ -1737,10 +1740,10 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>42</v>
@@ -1757,10 +1760,10 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>42</v>
@@ -1777,10 +1780,10 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>42</v>
@@ -1791,22 +1794,22 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="1">
-        <v>0</v>
+      <c r="F35" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -1817,10 +1820,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>42</v>
@@ -1837,10 +1840,10 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>42</v>
@@ -1857,15 +1860,17 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
@@ -1875,10 +1880,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>42</v>
@@ -1893,10 +1898,10 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D40">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>42</v>
@@ -1905,16 +1910,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D41">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>42</v>
@@ -1929,10 +1934,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D42">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>42</v>
@@ -1947,10 +1952,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D43">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>42</v>
@@ -1965,10 +1970,10 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>42</v>
@@ -1977,21 +1982,21 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45">
-        <v>60</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
       </c>
       <c r="D45">
-        <v>450</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
@@ -2001,10 +2006,10 @@
         <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D46">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
@@ -2019,10 +2024,10 @@
         <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D47">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
@@ -2037,10 +2042,10 @@
         <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D48">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
@@ -2055,10 +2060,10 @@
         <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D49">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
@@ -2073,10 +2078,10 @@
         <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D50">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
@@ -2091,10 +2096,10 @@
         <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D51">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
@@ -2109,10 +2114,10 @@
         <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D52">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
@@ -2126,11 +2131,11 @@
       <c r="B53">
         <v>60</v>
       </c>
-      <c r="C53" t="s">
-        <v>58</v>
+      <c r="C53" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D53">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
@@ -2145,10 +2150,10 @@
         <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D54">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
@@ -2163,10 +2168,10 @@
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
@@ -2181,10 +2186,10 @@
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D56">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
@@ -2193,16 +2198,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B57">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D57">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
@@ -2217,10 +2222,10 @@
         <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D58">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
@@ -2235,13 +2240,31 @@
         <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D59">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60">
+        <v>590</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264E9373-7292-4A0A-A965-EA5B33A9CA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237769B3-1188-4141-B172-F8E61FD01790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28995" yWindow="-195" windowWidth="29190" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28785" yWindow="15" windowWidth="28770" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="74">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t># Cases (Cumulative)</t>
+  </si>
+  <si>
+    <t># New Vaccination Doses</t>
   </si>
 </sst>
 </file>
@@ -800,8 +803,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F60" totalsRowShown="0">
-  <autoFilter ref="A1:F60" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F61" totalsRowShown="0">
+  <autoFilter ref="A1:F61" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Metric Catergory"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Metric Catergory - Sort"/>
@@ -1111,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1928,13 +1931,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="D42">
         <v>410</v>
@@ -1952,7 +1955,7 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D43">
         <v>420</v>
@@ -1970,7 +1973,7 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D44">
         <v>430</v>
@@ -1988,7 +1991,7 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D45">
         <v>440</v>
@@ -2000,21 +2003,21 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>60</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
       </c>
       <c r="D46">
         <v>450</v>
       </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
@@ -2024,7 +2027,7 @@
         <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D47">
         <v>460</v>
@@ -2042,7 +2045,7 @@
         <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D48">
         <v>470</v>
@@ -2060,7 +2063,7 @@
         <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D49">
         <v>480</v>
@@ -2078,7 +2081,7 @@
         <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D50">
         <v>490</v>
@@ -2096,7 +2099,7 @@
         <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D51">
         <v>500</v>
@@ -2114,7 +2117,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D52">
         <v>510</v>
@@ -2132,7 +2135,7 @@
         <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D53">
         <v>520</v>
@@ -2149,8 +2152,8 @@
       <c r="B54">
         <v>60</v>
       </c>
-      <c r="C54" t="s">
-        <v>58</v>
+      <c r="C54" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D54">
         <v>530</v>
@@ -2168,7 +2171,7 @@
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D55">
         <v>540</v>
@@ -2186,7 +2189,7 @@
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D56">
         <v>550</v>
@@ -2204,7 +2207,7 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D57">
         <v>560</v>
@@ -2216,13 +2219,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B58">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D58">
         <v>570</v>
@@ -2240,7 +2243,7 @@
         <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D59">
         <v>580</v>
@@ -2258,13 +2261,31 @@
         <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D60">
         <v>590</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>70</v>
+      </c>
+      <c r="C61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61">
+        <v>600</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237769B3-1188-4141-B172-F8E61FD01790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45CD939-17C8-430D-B976-1D1EB3DCD1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28785" yWindow="15" windowWidth="28770" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="74">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -1116,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1945,7 +1945,9 @@
       <c r="E42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45CD939-17C8-430D-B976-1D1EB3DCD1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD1A32F-98F5-4E49-89D5-E1F1602D3C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28785" yWindow="15" windowWidth="28770" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="75">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t># New Vaccination Doses</t>
+  </si>
+  <si>
+    <t># New Vaccination Doses (7-day avg)</t>
   </si>
 </sst>
 </file>
@@ -803,8 +806,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F61" totalsRowShown="0">
-  <autoFilter ref="A1:F61" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F62" totalsRowShown="0">
+  <autoFilter ref="A1:F62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Metric Catergory"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Metric Catergory - Sort"/>
@@ -1114,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1951,13 +1954,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="D43">
         <v>420</v>
@@ -1965,7 +1968,9 @@
       <c r="E43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
@@ -1975,7 +1980,7 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D44">
         <v>430</v>
@@ -1993,7 +1998,7 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45">
         <v>440</v>
@@ -2011,7 +2016,7 @@
         <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46">
         <v>450</v>
@@ -2023,21 +2028,21 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>60</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>39</v>
       </c>
       <c r="D47">
         <v>460</v>
       </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
@@ -2047,7 +2052,7 @@
         <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D48">
         <v>470</v>
@@ -2065,7 +2070,7 @@
         <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D49">
         <v>480</v>
@@ -2083,7 +2088,7 @@
         <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D50">
         <v>490</v>
@@ -2101,7 +2106,7 @@
         <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D51">
         <v>500</v>
@@ -2119,7 +2124,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D52">
         <v>510</v>
@@ -2137,7 +2142,7 @@
         <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53">
         <v>520</v>
@@ -2155,7 +2160,7 @@
         <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D54">
         <v>530</v>
@@ -2172,8 +2177,8 @@
       <c r="B55">
         <v>60</v>
       </c>
-      <c r="C55" t="s">
-        <v>58</v>
+      <c r="C55" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="D55">
         <v>540</v>
@@ -2191,7 +2196,7 @@
         <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D56">
         <v>550</v>
@@ -2209,7 +2214,7 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D57">
         <v>560</v>
@@ -2227,7 +2232,7 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D58">
         <v>570</v>
@@ -2239,13 +2244,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B59">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D59">
         <v>580</v>
@@ -2263,7 +2268,7 @@
         <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D60">
         <v>590</v>
@@ -2281,13 +2286,31 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D61">
         <v>600</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>70</v>
+      </c>
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62">
+        <v>610</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD1A32F-98F5-4E49-89D5-E1F1602D3C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C679578E-F4C9-4BB3-BF63-03BC6F8696C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28785" yWindow="15" windowWidth="28770" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="75">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1834,8 +1834,8 @@
       <c r="E36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="1">
-        <v>0</v>
+      <c r="F36" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -1854,8 +1854,8 @@
       <c r="E37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="1">
-        <v>0</v>
+      <c r="F37" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -1874,8 +1874,8 @@
       <c r="E38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="1">
-        <v>0</v>
+      <c r="F38" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C679578E-F4C9-4BB3-BF63-03BC6F8696C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3CC5D1-3B77-418A-94E4-C261087903EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28785" yWindow="15" windowWidth="28770" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -202,12 +202,6 @@
     <t>Treatments</t>
   </si>
   <si>
-    <t># Weekly PBS Scripts</t>
-  </si>
-  <si>
-    <t># Weekly PBS Scripts per 1M</t>
-  </si>
-  <si>
     <t># Aged Care Active Outbreaks (7-day avg)</t>
   </si>
   <si>
@@ -235,9 +229,6 @@
     <t>% Aged Care Resident Cases Weekly Change</t>
   </si>
   <si>
-    <t>% Weekly PBS Scripts Change</t>
-  </si>
-  <si>
     <t># Cases (Cumulative)</t>
   </si>
   <si>
@@ -245,6 +236,15 @@
   </si>
   <si>
     <t># New Vaccination Doses (7-day avg)</t>
+  </si>
+  <si>
+    <t># Monthly PBS Scripts</t>
+  </si>
+  <si>
+    <t># Monthly PBS Scripts per 1M</t>
+  </si>
+  <si>
+    <t>% Monthly PBS Scripts Change</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1120,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1200,7 +1200,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D4">
         <v>30</v>
@@ -1940,7 +1940,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D42">
         <v>410</v>
@@ -1960,7 +1960,7 @@
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D43">
         <v>420</v>
@@ -2070,7 +2070,7 @@
         <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D49">
         <v>480</v>
@@ -2088,7 +2088,7 @@
         <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D50">
         <v>490</v>
@@ -2106,7 +2106,7 @@
         <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D51">
         <v>500</v>
@@ -2142,7 +2142,7 @@
         <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D53">
         <v>520</v>
@@ -2160,7 +2160,7 @@
         <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D54">
         <v>530</v>
@@ -2178,7 +2178,7 @@
         <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D55">
         <v>540</v>
@@ -2214,7 +2214,7 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D57">
         <v>560</v>
@@ -2232,7 +2232,7 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D58">
         <v>570</v>
@@ -2250,7 +2250,7 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D59">
         <v>580</v>
@@ -2268,7 +2268,7 @@
         <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D60">
         <v>590</v>
@@ -2286,7 +2286,7 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D61">
         <v>600</v>
@@ -2304,7 +2304,7 @@
         <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D62">
         <v>610</v>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3CC5D1-3B77-418A-94E4-C261087903EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEAE553-F1C0-4E90-A1FD-0E8C38527D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28785" yWindow="15" windowWidth="28770" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28995" yWindow="-195" windowWidth="29190" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="81">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -245,6 +245,24 @@
   </si>
   <si>
     <t>% Monthly PBS Scripts Change</t>
+  </si>
+  <si>
+    <t># Aged Care Active Resident Cases (Weekly)</t>
+  </si>
+  <si>
+    <t># Aged Care Active Resident Cases (Weekly) per 1M</t>
+  </si>
+  <si>
+    <t>% Aged Care Active Resident Cases (Weekly) Change</t>
+  </si>
+  <si>
+    <t># Aged Care Active Staff Cases (Weekly)</t>
+  </si>
+  <si>
+    <t># Aged Care Active Staff Cases (Weekly) per 1M</t>
+  </si>
+  <si>
+    <t>% Aged Care Active Staff Cases (Weekly) Change</t>
   </si>
 </sst>
 </file>
@@ -806,8 +824,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F62" totalsRowShown="0">
-  <autoFilter ref="A1:F62" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F68" totalsRowShown="0">
+  <autoFilter ref="A1:F68" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Metric Catergory"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Metric Catergory - Sort"/>
@@ -1117,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2124,7 +2142,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D52">
         <v>510</v>
@@ -2142,7 +2160,7 @@
         <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D53">
         <v>520</v>
@@ -2160,7 +2178,7 @@
         <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D54">
         <v>530</v>
@@ -2178,7 +2196,7 @@
         <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D55">
         <v>540</v>
@@ -2195,8 +2213,8 @@
       <c r="B56">
         <v>60</v>
       </c>
-      <c r="C56" t="s">
-        <v>58</v>
+      <c r="C56" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D56">
         <v>550</v>
@@ -2213,8 +2231,8 @@
       <c r="B57">
         <v>60</v>
       </c>
-      <c r="C57" t="s">
-        <v>60</v>
+      <c r="C57" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D57">
         <v>560</v>
@@ -2231,8 +2249,8 @@
       <c r="B58">
         <v>60</v>
       </c>
-      <c r="C58" t="s">
-        <v>61</v>
+      <c r="C58" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D58">
         <v>570</v>
@@ -2249,8 +2267,8 @@
       <c r="B59">
         <v>60</v>
       </c>
-      <c r="C59" t="s">
-        <v>62</v>
+      <c r="C59" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D59">
         <v>580</v>
@@ -2262,13 +2280,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B60">
-        <v>70</v>
-      </c>
-      <c r="C60" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D60">
         <v>590</v>
@@ -2280,13 +2298,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B61">
-        <v>70</v>
-      </c>
-      <c r="C61" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="D61">
         <v>600</v>
@@ -2298,19 +2316,127 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B62">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D62">
         <v>610</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63">
+        <v>60</v>
+      </c>
+      <c r="C63" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63">
+        <v>560</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64">
+        <v>60</v>
+      </c>
+      <c r="C64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64">
+        <v>570</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65">
+        <v>580</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66">
+        <v>590</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67">
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67">
+        <v>600</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>74</v>
+      </c>
+      <c r="D68">
+        <v>610</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEAE553-F1C0-4E90-A1FD-0E8C38527D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A0C634-92FC-4CCD-B9EF-FE12E330BAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28995" yWindow="-195" windowWidth="29190" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:C61"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2343,7 +2343,7 @@
         <v>60</v>
       </c>
       <c r="D63">
-        <v>560</v>
+        <v>620</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
@@ -2361,7 +2361,7 @@
         <v>61</v>
       </c>
       <c r="D64">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
@@ -2379,7 +2379,7 @@
         <v>62</v>
       </c>
       <c r="D65">
-        <v>580</v>
+        <v>640</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
@@ -2397,7 +2397,7 @@
         <v>72</v>
       </c>
       <c r="D66">
-        <v>590</v>
+        <v>650</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
@@ -2415,7 +2415,7 @@
         <v>73</v>
       </c>
       <c r="D67">
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
@@ -2433,7 +2433,7 @@
         <v>74</v>
       </c>
       <c r="D68">
-        <v>610</v>
+        <v>670</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A0C634-92FC-4CCD-B9EF-FE12E330BAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C195AA5-BA9F-4555-B4A5-E7D9221C3F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28995" yWindow="-195" windowWidth="29190" windowHeight="15870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="84">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -263,6 +263,15 @@
   </si>
   <si>
     <t>% Aged Care Active Staff Cases (Weekly) Change</t>
+  </si>
+  <si>
+    <t># Cases (Monthly)</t>
+  </si>
+  <si>
+    <t># Cases per 1M (Monthly)</t>
+  </si>
+  <si>
+    <t># Cases (Cumulative, Monthly)</t>
   </si>
 </sst>
 </file>
@@ -824,8 +833,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F68" totalsRowShown="0">
-  <autoFilter ref="A1:F68" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F71" totalsRowShown="0">
+  <autoFilter ref="A1:F71" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Metric Catergory"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Metric Catergory - Sort"/>
@@ -1135,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1404,60 +1413,54 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D14">
         <v>130</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="D15">
         <v>140</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="D16">
         <v>150</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
         <v>42</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>160</v>
@@ -1490,7 +1493,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D18">
         <v>170</v>
@@ -1510,7 +1513,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>180</v>
@@ -1530,7 +1533,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <v>190</v>
@@ -1550,7 +1553,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -1570,14 +1573,16 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <v>210</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1">
-        <v>0</v>
+      <c r="E22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1588,14 +1593,16 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>220</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1">
-        <v>0</v>
+      <c r="E23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -1606,74 +1613,70 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D24">
         <v>230</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1">
-        <v>0</v>
+      <c r="E24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <v>240</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>42</v>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>250</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>42</v>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>260</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>42</v>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1684,7 +1687,7 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D28">
         <v>270</v>
@@ -1704,7 +1707,7 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D29">
         <v>280</v>
@@ -1724,7 +1727,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D30">
         <v>290</v>
@@ -1744,7 +1747,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D31">
         <v>300</v>
@@ -1764,7 +1767,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D32">
         <v>310</v>
@@ -1784,7 +1787,7 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D33">
         <v>320</v>
@@ -1804,7 +1807,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D34">
         <v>330</v>
@@ -1824,7 +1827,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D35">
         <v>340</v>
@@ -1838,13 +1841,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D36">
         <v>350</v>
@@ -1858,13 +1861,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D37">
         <v>360</v>
@@ -1878,13 +1881,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D38">
         <v>370</v>
@@ -1904,7 +1907,7 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D39">
         <v>380</v>
@@ -1912,7 +1915,9 @@
       <c r="E39" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
@@ -1922,7 +1927,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D40">
         <v>390</v>
@@ -1930,7 +1935,9 @@
       <c r="E40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
@@ -1940,7 +1947,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D41">
         <v>400</v>
@@ -1948,7 +1955,9 @@
       <c r="E41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
@@ -1958,7 +1967,7 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D42">
         <v>410</v>
@@ -1966,9 +1975,7 @@
       <c r="E42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
@@ -1978,7 +1985,7 @@
         <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D43">
         <v>420</v>
@@ -1986,19 +1993,17 @@
       <c r="E43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44">
         <v>430</v>
@@ -2010,13 +2015,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D45">
         <v>440</v>
@@ -2024,17 +2029,19 @@
       <c r="E45" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D46">
         <v>450</v>
@@ -2042,7 +2049,9 @@
       <c r="E46" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
@@ -2052,7 +2061,7 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D47">
         <v>460</v>
@@ -2064,57 +2073,57 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48">
-        <v>60</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
       </c>
       <c r="D48">
         <v>470</v>
       </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>60</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
       </c>
       <c r="D49">
         <v>480</v>
       </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>60</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>39</v>
       </c>
       <c r="D50">
         <v>490</v>
       </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
@@ -2124,7 +2133,7 @@
         <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D51">
         <v>500</v>
@@ -2142,7 +2151,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D52">
         <v>510</v>
@@ -2160,7 +2169,7 @@
         <v>60</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D53">
         <v>520</v>
@@ -2178,7 +2187,7 @@
         <v>60</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D54">
         <v>530</v>
@@ -2196,7 +2205,7 @@
         <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D55">
         <v>540</v>
@@ -2214,7 +2223,7 @@
         <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D56">
         <v>550</v>
@@ -2232,7 +2241,7 @@
         <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D57">
         <v>560</v>
@@ -2250,7 +2259,7 @@
         <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D58">
         <v>570</v>
@@ -2268,7 +2277,7 @@
         <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D59">
         <v>580</v>
@@ -2286,7 +2295,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D60">
         <v>590</v>
@@ -2304,7 +2313,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D61">
         <v>600</v>
@@ -2321,8 +2330,8 @@
       <c r="B62">
         <v>60</v>
       </c>
-      <c r="C62" t="s">
-        <v>58</v>
+      <c r="C62" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D62">
         <v>610</v>
@@ -2339,8 +2348,8 @@
       <c r="B63">
         <v>60</v>
       </c>
-      <c r="C63" t="s">
-        <v>60</v>
+      <c r="C63" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D63">
         <v>620</v>
@@ -2357,8 +2366,8 @@
       <c r="B64">
         <v>60</v>
       </c>
-      <c r="C64" t="s">
-        <v>61</v>
+      <c r="C64" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="D64">
         <v>630</v>
@@ -2376,7 +2385,7 @@
         <v>60</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D65">
         <v>640</v>
@@ -2388,13 +2397,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B66">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D66">
         <v>650</v>
@@ -2406,13 +2415,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B67">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D67">
         <v>660</v>
@@ -2424,19 +2433,73 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B68">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D68">
         <v>670</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69">
+        <v>680</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70">
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70">
+        <v>690</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71">
+        <v>700</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C195AA5-BA9F-4555-B4A5-E7D9221C3F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E847C06-EA87-4BC4-BFC6-A929601EDF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="87">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t># Cases (Cumulative, Monthly)</t>
+  </si>
+  <si>
+    <t># Aged Care Active Outbreaks (Weekly)</t>
+  </si>
+  <si>
+    <t># Aged Care Active Outbreaks (Weekly) per 1M</t>
+  </si>
+  <si>
+    <t>% Aged Care Active Outbreaks (Weekly) Change</t>
   </si>
 </sst>
 </file>
@@ -833,8 +842,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F71" totalsRowShown="0">
-  <autoFilter ref="A1:F71" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F74" totalsRowShown="0">
+  <autoFilter ref="A1:F74" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Metric Catergory"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Metric Catergory - Sort"/>
@@ -1144,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64:F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2384,8 +2393,8 @@
       <c r="B65">
         <v>60</v>
       </c>
-      <c r="C65" t="s">
-        <v>58</v>
+      <c r="C65" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D65">
         <v>640</v>
@@ -2402,8 +2411,8 @@
       <c r="B66">
         <v>60</v>
       </c>
-      <c r="C66" t="s">
-        <v>60</v>
+      <c r="C66" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D66">
         <v>650</v>
@@ -2420,8 +2429,8 @@
       <c r="B67">
         <v>60</v>
       </c>
-      <c r="C67" t="s">
-        <v>61</v>
+      <c r="C67" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D67">
         <v>660</v>
@@ -2439,7 +2448,7 @@
         <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D68">
         <v>670</v>
@@ -2451,13 +2460,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B69">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D69">
         <v>680</v>
@@ -2469,13 +2478,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B70">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D70">
         <v>690</v>
@@ -2487,19 +2496,73 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B71">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D71">
         <v>700</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72">
+        <v>710</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73">
+        <v>70</v>
+      </c>
+      <c r="C73" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73">
+        <v>720</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74">
+        <v>70</v>
+      </c>
+      <c r="C74" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74">
+        <v>730</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E847C06-EA87-4BC4-BFC6-A929601EDF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD520EE3-0F13-4E15-A25B-AE93CEA18095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,13 +274,13 @@
     <t># Cases (Cumulative, Monthly)</t>
   </si>
   <si>
-    <t># Aged Care Active Outbreaks (Weekly)</t>
-  </si>
-  <si>
-    <t># Aged Care Active Outbreaks (Weekly) per 1M</t>
-  </si>
-  <si>
-    <t>% Aged Care Active Outbreaks (Weekly) Change</t>
+    <t># Aged Care Active Outbreaks Facilities (Weekly)</t>
+  </si>
+  <si>
+    <t># Aged Care Active Outbreaks Facilities (Weekly) per 1M</t>
+  </si>
+  <si>
+    <t>% Aged Care Active Outbreaks Facilities (Weekly) Change</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64:F67"/>
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD520EE3-0F13-4E15-A25B-AE93CEA18095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41991B53-1C8F-41F1-AE1F-6CEA4704EA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,13 +274,13 @@
     <t># Cases (Cumulative, Monthly)</t>
   </si>
   <si>
-    <t># Aged Care Active Outbreaks Facilities (Weekly)</t>
-  </si>
-  <si>
-    <t># Aged Care Active Outbreaks Facilities (Weekly) per 1M</t>
-  </si>
-  <si>
-    <t>% Aged Care Active Outbreaks Facilities (Weekly) Change</t>
+    <t># Aged Care Outbreaks Facilities (Weekly)</t>
+  </si>
+  <si>
+    <t># Aged Care Outbreaks Facilities (Weekly) per 1M</t>
+  </si>
+  <si>
+    <t>% Aged Care Outbreaks Facilities (Weekly) Change</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2393,8 +2393,8 @@
       <c r="B65">
         <v>60</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>84</v>
+      <c r="C65" t="s">
+        <v>58</v>
       </c>
       <c r="D65">
         <v>640</v>
@@ -2411,8 +2411,8 @@
       <c r="B66">
         <v>60</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>85</v>
+      <c r="C66" t="s">
+        <v>60</v>
       </c>
       <c r="D66">
         <v>650</v>
@@ -2429,8 +2429,8 @@
       <c r="B67">
         <v>60</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>86</v>
+      <c r="C67" t="s">
+        <v>61</v>
       </c>
       <c r="D67">
         <v>660</v>
@@ -2448,7 +2448,7 @@
         <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D68">
         <v>670</v>
@@ -2465,8 +2465,8 @@
       <c r="B69">
         <v>60</v>
       </c>
-      <c r="C69" t="s">
-        <v>60</v>
+      <c r="C69" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D69">
         <v>680</v>
@@ -2483,8 +2483,8 @@
       <c r="B70">
         <v>60</v>
       </c>
-      <c r="C70" t="s">
-        <v>61</v>
+      <c r="C70" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D70">
         <v>690</v>
@@ -2501,8 +2501,8 @@
       <c r="B71">
         <v>60</v>
       </c>
-      <c r="C71" t="s">
-        <v>62</v>
+      <c r="C71" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D71">
         <v>700</v>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41991B53-1C8F-41F1-AE1F-6CEA4704EA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEBA1C1-4793-44F0-82F3-FB7050163FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="93">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -281,6 +281,24 @@
   </si>
   <si>
     <t>% Aged Care Outbreaks Facilities (Weekly) Change</t>
+  </si>
+  <si>
+    <t># Aged Care Molnupiravir Prescriptions</t>
+  </si>
+  <si>
+    <t># Aged Care Molnupiravir Prescriptions per 1M</t>
+  </si>
+  <si>
+    <t>% Aged Care Molnupiravir Prescriptions per Case</t>
+  </si>
+  <si>
+    <t># Aged Care Paxlovid Prescriptions</t>
+  </si>
+  <si>
+    <t># Aged Care Paxlovid Prescriptions per 1M</t>
+  </si>
+  <si>
+    <t>% Aged Care Paxlovid Prescriptions per Case</t>
   </si>
 </sst>
 </file>
@@ -842,8 +860,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F74" totalsRowShown="0">
-  <autoFilter ref="A1:F74" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F80" totalsRowShown="0">
+  <autoFilter ref="A1:F80" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Metric Catergory"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Metric Catergory - Sort"/>
@@ -857,9 +875,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -897,7 +915,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1003,7 +1021,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1145,7 +1163,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1153,10 +1171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+      <selection activeCell="F71" sqref="F71:F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2514,13 +2532,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B72">
-        <v>70</v>
-      </c>
-      <c r="C72" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D72">
         <v>710</v>
@@ -2532,13 +2550,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B73">
-        <v>70</v>
-      </c>
-      <c r="C73" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D73">
         <v>720</v>
@@ -2550,19 +2568,127 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B74">
-        <v>70</v>
-      </c>
-      <c r="C74" t="s">
-        <v>74</v>
+        <v>60</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D74">
         <v>730</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75">
+        <v>60</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75">
+        <v>740</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>51</v>
+      </c>
+      <c r="B76">
+        <v>60</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76">
+        <v>750</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77">
+        <v>60</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77">
+        <v>760</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>59</v>
+      </c>
+      <c r="B78">
+        <v>70</v>
+      </c>
+      <c r="C78" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78">
+        <v>770</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79">
+        <v>70</v>
+      </c>
+      <c r="C79" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79">
+        <v>780</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80">
+        <v>70</v>
+      </c>
+      <c r="C80" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80">
+        <v>790</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEBA1C1-4793-44F0-82F3-FB7050163FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B5AA05-7BBA-405B-9B56-C48935D48A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1174,7 +1174,7 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71:F77"/>
+      <selection activeCell="A72" sqref="A72:B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2532,10 +2532,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B72">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>87</v>
@@ -2550,10 +2550,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B73">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>88</v>
@@ -2568,10 +2568,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B74">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>89</v>
@@ -2586,10 +2586,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B75">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>90</v>
@@ -2604,10 +2604,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B76">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>91</v>
@@ -2622,10 +2622,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B77">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>92</v>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B5AA05-7BBA-405B-9B56-C48935D48A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EABE078-01C8-4648-9659-5D7F6105D852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -283,22 +283,22 @@
     <t>% Aged Care Outbreaks Facilities (Weekly) Change</t>
   </si>
   <si>
-    <t># Aged Care Molnupiravir Prescriptions</t>
-  </si>
-  <si>
-    <t># Aged Care Molnupiravir Prescriptions per 1M</t>
-  </si>
-  <si>
-    <t>% Aged Care Molnupiravir Prescriptions per Case</t>
-  </si>
-  <si>
-    <t># Aged Care Paxlovid Prescriptions</t>
-  </si>
-  <si>
-    <t># Aged Care Paxlovid Prescriptions per 1M</t>
-  </si>
-  <si>
-    <t>% Aged Care Paxlovid Prescriptions per Case</t>
+    <t># Aged Care Molnupiravir Prescriptions (Weekly)</t>
+  </si>
+  <si>
+    <t># Aged Care Molnupiravir Prescriptions (Weekly) per 1M</t>
+  </si>
+  <si>
+    <t>% Aged Care Molnupiravir Prescriptions (Weekly) per Case</t>
+  </si>
+  <si>
+    <t># Aged Care Paxlovid Prescriptions (Weekly)</t>
+  </si>
+  <si>
+    <t># Aged Care Paxlovid Prescriptions (Weekly) per 1M</t>
+  </si>
+  <si>
+    <t>% Aged Care Paxlovid Prescriptions (Weekly) per Case</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1174,7 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:B77"/>
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EABE078-01C8-4648-9659-5D7F6105D852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2567D515-CB49-4117-A38C-BB569AD28F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -283,22 +296,22 @@
     <t>% Aged Care Outbreaks Facilities (Weekly) Change</t>
   </si>
   <si>
-    <t># Aged Care Molnupiravir Prescriptions (Weekly)</t>
-  </si>
-  <si>
-    <t># Aged Care Molnupiravir Prescriptions (Weekly) per 1M</t>
-  </si>
-  <si>
-    <t>% Aged Care Molnupiravir Prescriptions (Weekly) per Case</t>
-  </si>
-  <si>
-    <t># Aged Care Paxlovid Prescriptions (Weekly)</t>
-  </si>
-  <si>
-    <t># Aged Care Paxlovid Prescriptions (Weekly) per 1M</t>
-  </si>
-  <si>
-    <t>% Aged Care Paxlovid Prescriptions (Weekly) per Case</t>
+    <t># Aged Care Molnupiravir Prescriptions (Monthly)</t>
+  </si>
+  <si>
+    <t># Aged Care Molnupiravir Prescriptions (Monthly) per 1M</t>
+  </si>
+  <si>
+    <t>% Aged Care Molnupiravir Prescriptions (Monthly) per Case</t>
+  </si>
+  <si>
+    <t># Aged Care Paxlovid Prescriptions (Monthly)</t>
+  </si>
+  <si>
+    <t># Aged Care Paxlovid Prescriptions (Monthly) per 1M</t>
+  </si>
+  <si>
+    <t>% Aged Care Paxlovid Prescriptions (Monthly) per Case</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1187,7 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2694,8 +2707,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2567D515-CB49-4117-A38C-BB569AD28F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8A0BF3-039F-401F-A9A5-95FD3E6C7B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,22 +296,22 @@
     <t>% Aged Care Outbreaks Facilities (Weekly) Change</t>
   </si>
   <si>
-    <t># Aged Care Molnupiravir Prescriptions (Monthly)</t>
-  </si>
-  <si>
-    <t># Aged Care Molnupiravir Prescriptions (Monthly) per 1M</t>
-  </si>
-  <si>
-    <t>% Aged Care Molnupiravir Prescriptions (Monthly) per Case</t>
-  </si>
-  <si>
-    <t># Aged Care Paxlovid Prescriptions (Monthly)</t>
-  </si>
-  <si>
-    <t># Aged Care Paxlovid Prescriptions (Monthly) per 1M</t>
-  </si>
-  <si>
-    <t>% Aged Care Paxlovid Prescriptions (Monthly) per Case</t>
+    <t># Aged Care Molnupiravir Prescriptions (Daily)</t>
+  </si>
+  <si>
+    <t># Aged Care Molnupiravir Prescriptions (Daily) per 1M</t>
+  </si>
+  <si>
+    <t>% Aged Care Molnupiravir Prescriptions (Daily) per Case</t>
+  </si>
+  <si>
+    <t># Aged Care Paxlovid Prescriptions (Daily)</t>
+  </si>
+  <si>
+    <t># Aged Care Paxlovid Prescriptions (Daily) per 1M</t>
+  </si>
+  <si>
+    <t>% Aged Care Paxlovid Prescriptions (Daily) per Case</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8A0BF3-039F-401F-A9A5-95FD3E6C7B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB333312-69A3-4766-B261-98210EA11456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="96">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -312,6 +312,15 @@
   </si>
   <si>
     <t>% Aged Care Paxlovid Prescriptions (Daily) per Case</t>
+  </si>
+  <si>
+    <t>% Aged Care Staff Cases (Weekly)</t>
+  </si>
+  <si>
+    <t>% Aged Care Staff Cases (Weekly) per 1M</t>
+  </si>
+  <si>
+    <t>% Aged Care Resident Cases (Weekly)</t>
   </si>
 </sst>
 </file>
@@ -873,8 +882,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F80" totalsRowShown="0">
-  <autoFilter ref="A1:F80" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F83" totalsRowShown="0">
+  <autoFilter ref="A1:F83" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Metric Catergory"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Metric Catergory - Sort"/>
@@ -1184,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54:F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2245,7 +2254,7 @@
         <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D55">
         <v>540</v>
@@ -2263,7 +2272,7 @@
         <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D56">
         <v>550</v>
@@ -2281,7 +2290,7 @@
         <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D57">
         <v>560</v>
@@ -2299,7 +2308,7 @@
         <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D58">
         <v>570</v>
@@ -2317,7 +2326,7 @@
         <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D59">
         <v>580</v>
@@ -2335,7 +2344,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D60">
         <v>590</v>
@@ -2353,7 +2362,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D61">
         <v>600</v>
@@ -2371,7 +2380,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D62">
         <v>610</v>
@@ -2389,7 +2398,7 @@
         <v>60</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D63">
         <v>620</v>
@@ -2407,7 +2416,7 @@
         <v>60</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D64">
         <v>630</v>
@@ -2424,8 +2433,8 @@
       <c r="B65">
         <v>60</v>
       </c>
-      <c r="C65" t="s">
-        <v>58</v>
+      <c r="C65" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D65">
         <v>640</v>
@@ -2442,8 +2451,8 @@
       <c r="B66">
         <v>60</v>
       </c>
-      <c r="C66" t="s">
-        <v>60</v>
+      <c r="C66" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D66">
         <v>650</v>
@@ -2460,8 +2469,8 @@
       <c r="B67">
         <v>60</v>
       </c>
-      <c r="C67" t="s">
-        <v>61</v>
+      <c r="C67" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="D67">
         <v>660</v>
@@ -2479,7 +2488,7 @@
         <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D68">
         <v>670</v>
@@ -2496,8 +2505,8 @@
       <c r="B69">
         <v>60</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>84</v>
+      <c r="C69" t="s">
+        <v>60</v>
       </c>
       <c r="D69">
         <v>680</v>
@@ -2514,8 +2523,8 @@
       <c r="B70">
         <v>60</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>85</v>
+      <c r="C70" t="s">
+        <v>61</v>
       </c>
       <c r="D70">
         <v>690</v>
@@ -2532,8 +2541,8 @@
       <c r="B71">
         <v>60</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>86</v>
+      <c r="C71" t="s">
+        <v>62</v>
       </c>
       <c r="D71">
         <v>700</v>
@@ -2545,13 +2554,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B72">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D72">
         <v>710</v>
@@ -2563,13 +2572,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B73">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D73">
         <v>720</v>
@@ -2581,13 +2590,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B74">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D74">
         <v>730</v>
@@ -2605,7 +2614,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D75">
         <v>740</v>
@@ -2623,7 +2632,7 @@
         <v>70</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D76">
         <v>750</v>
@@ -2641,7 +2650,7 @@
         <v>70</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D77">
         <v>760</v>
@@ -2658,8 +2667,8 @@
       <c r="B78">
         <v>70</v>
       </c>
-      <c r="C78" t="s">
-        <v>72</v>
+      <c r="C78" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D78">
         <v>770</v>
@@ -2676,8 +2685,8 @@
       <c r="B79">
         <v>70</v>
       </c>
-      <c r="C79" t="s">
-        <v>73</v>
+      <c r="C79" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D79">
         <v>780</v>
@@ -2694,14 +2703,68 @@
       <c r="B80">
         <v>70</v>
       </c>
-      <c r="C80" t="s">
-        <v>74</v>
+      <c r="C80" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="D80">
         <v>790</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81">
+        <v>70</v>
+      </c>
+      <c r="C81" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81">
+        <v>800</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82">
+        <v>70</v>
+      </c>
+      <c r="C82" t="s">
+        <v>73</v>
+      </c>
+      <c r="D82">
+        <v>810</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>59</v>
+      </c>
+      <c r="B83">
+        <v>70</v>
+      </c>
+      <c r="C83" t="s">
+        <v>74</v>
+      </c>
+      <c r="D83">
+        <v>820</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB333312-69A3-4766-B261-98210EA11456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01A974C-47C3-4ED6-9AE5-6F11BFD8C36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,13 +314,13 @@
     <t>% Aged Care Paxlovid Prescriptions (Daily) per Case</t>
   </si>
   <si>
-    <t>% Aged Care Staff Cases (Weekly)</t>
-  </si>
-  <si>
-    <t>% Aged Care Staff Cases (Weekly) per 1M</t>
-  </si>
-  <si>
-    <t>% Aged Care Resident Cases (Weekly)</t>
+    <t># Aged Care Staff Cases (Weekly)</t>
+  </si>
+  <si>
+    <t># Aged Care Staff Cases (Weekly) per 1M</t>
+  </si>
+  <si>
+    <t># Aged Care Resident Cases (Weekly)</t>
   </si>
 </sst>
 </file>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54:F64"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01A974C-47C3-4ED6-9AE5-6F11BFD8C36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434A6150-9FEE-4965-A59E-C0329514FD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,13 +314,13 @@
     <t>% Aged Care Paxlovid Prescriptions (Daily) per Case</t>
   </si>
   <si>
-    <t># Aged Care Staff Cases (Weekly)</t>
-  </si>
-  <si>
-    <t># Aged Care Staff Cases (Weekly) per 1M</t>
-  </si>
-  <si>
-    <t># Aged Care Resident Cases (Weekly)</t>
+    <t># Residential Aged Care Staff Cases (Weekly) per 1M</t>
+  </si>
+  <si>
+    <t># Residential Aged Care Staff Cases (Weekly)</t>
+  </si>
+  <si>
+    <t># Residential Aged Care Resident Cases (Weekly)</t>
   </si>
 </sst>
 </file>
@@ -1195,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2254,10 +2254,10 @@
         <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D55">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
@@ -2272,10 +2272,10 @@
         <v>60</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D56">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
@@ -2290,10 +2290,10 @@
         <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D57">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
@@ -2308,10 +2308,10 @@
         <v>60</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D58">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
@@ -2326,10 +2326,10 @@
         <v>60</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D59">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
@@ -2344,10 +2344,10 @@
         <v>60</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D60">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
@@ -2362,10 +2362,10 @@
         <v>60</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D61">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
@@ -2380,10 +2380,10 @@
         <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D62">
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
@@ -2398,10 +2398,10 @@
         <v>60</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D63">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
@@ -2416,10 +2416,10 @@
         <v>60</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D64">
-        <v>630</v>
+        <v>660</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
@@ -2433,11 +2433,11 @@
       <c r="B65">
         <v>60</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>78</v>
+      <c r="C65" t="s">
+        <v>58</v>
       </c>
       <c r="D65">
-        <v>640</v>
+        <v>670</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
@@ -2451,11 +2451,11 @@
       <c r="B66">
         <v>60</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>79</v>
+      <c r="C66" t="s">
+        <v>60</v>
       </c>
       <c r="D66">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
@@ -2469,11 +2469,11 @@
       <c r="B67">
         <v>60</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>80</v>
+      <c r="C67" t="s">
+        <v>61</v>
       </c>
       <c r="D67">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
@@ -2488,10 +2488,10 @@
         <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D68">
-        <v>670</v>
+        <v>700</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
@@ -2505,11 +2505,11 @@
       <c r="B69">
         <v>60</v>
       </c>
-      <c r="C69" t="s">
-        <v>60</v>
+      <c r="C69" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D69">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
@@ -2523,11 +2523,11 @@
       <c r="B70">
         <v>60</v>
       </c>
-      <c r="C70" t="s">
-        <v>61</v>
+      <c r="C70" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D70">
-        <v>690</v>
+        <v>720</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
@@ -2541,11 +2541,11 @@
       <c r="B71">
         <v>60</v>
       </c>
-      <c r="C71" t="s">
-        <v>62</v>
+      <c r="C71" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D71">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
@@ -2560,10 +2560,10 @@
         <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D72">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
@@ -2578,10 +2578,10 @@
         <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D73">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
@@ -2596,10 +2596,10 @@
         <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D74">
-        <v>730</v>
+        <v>760</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
@@ -2617,7 +2617,7 @@
         <v>87</v>
       </c>
       <c r="D75">
-        <v>740</v>
+        <v>770</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
@@ -2635,7 +2635,7 @@
         <v>88</v>
       </c>
       <c r="D76">
-        <v>750</v>
+        <v>780</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
@@ -2653,7 +2653,7 @@
         <v>89</v>
       </c>
       <c r="D77">
-        <v>760</v>
+        <v>790</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
@@ -2671,7 +2671,7 @@
         <v>90</v>
       </c>
       <c r="D78">
-        <v>770</v>
+        <v>800</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
@@ -2689,7 +2689,7 @@
         <v>91</v>
       </c>
       <c r="D79">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
@@ -2707,7 +2707,7 @@
         <v>92</v>
       </c>
       <c r="D80">
-        <v>790</v>
+        <v>820</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
@@ -2725,7 +2725,7 @@
         <v>72</v>
       </c>
       <c r="D81">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
@@ -2743,7 +2743,7 @@
         <v>73</v>
       </c>
       <c r="D82">
-        <v>810</v>
+        <v>840</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
@@ -2761,7 +2761,7 @@
         <v>74</v>
       </c>
       <c r="D83">
-        <v>820</v>
+        <v>850</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434A6150-9FEE-4965-A59E-C0329514FD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AD3C94-5227-4BB8-9397-4EC7984F420E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="94">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -296,24 +296,6 @@
     <t>% Aged Care Outbreaks Facilities (Weekly) Change</t>
   </si>
   <si>
-    <t># Aged Care Molnupiravir Prescriptions (Daily)</t>
-  </si>
-  <si>
-    <t># Aged Care Molnupiravir Prescriptions (Daily) per 1M</t>
-  </si>
-  <si>
-    <t>% Aged Care Molnupiravir Prescriptions (Daily) per Case</t>
-  </si>
-  <si>
-    <t># Aged Care Paxlovid Prescriptions (Daily)</t>
-  </si>
-  <si>
-    <t># Aged Care Paxlovid Prescriptions (Daily) per 1M</t>
-  </si>
-  <si>
-    <t>% Aged Care Paxlovid Prescriptions (Daily) per Case</t>
-  </si>
-  <si>
     <t># Residential Aged Care Staff Cases (Weekly) per 1M</t>
   </si>
   <si>
@@ -321,6 +303,18 @@
   </si>
   <si>
     <t># Residential Aged Care Resident Cases (Weekly)</t>
+  </si>
+  <si>
+    <t># Residential Aged Care Molnupiravir Prescriptions (Daily)</t>
+  </si>
+  <si>
+    <t>% Residential Aged Care Molnupiravir Prescriptions (Daily) per Case</t>
+  </si>
+  <si>
+    <t># Residential Aged Care Paxlovid Prescriptions (Daily)</t>
+  </si>
+  <si>
+    <t>% Residential Aged Care Paxlovid Prescriptions (Daily) per Case</t>
   </si>
 </sst>
 </file>
@@ -882,8 +876,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F83" totalsRowShown="0">
-  <autoFilter ref="A1:F83" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F81" totalsRowShown="0">
+  <autoFilter ref="A1:F81" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Metric Catergory"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Metric Catergory - Sort"/>
@@ -1193,17 +1187,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="16.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.796875" customWidth="1"/>
     <col min="5" max="5" width="14.1328125" customWidth="1"/>
   </cols>
@@ -2560,7 +2554,7 @@
         <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D72">
         <v>740</v>
@@ -2578,7 +2572,7 @@
         <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D73">
         <v>750</v>
@@ -2596,7 +2590,7 @@
         <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D74">
         <v>760</v>
@@ -2614,7 +2608,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D75">
         <v>770</v>
@@ -2632,10 +2626,10 @@
         <v>70</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D76">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
@@ -2650,10 +2644,10 @@
         <v>70</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D77">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
@@ -2668,10 +2662,10 @@
         <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D78">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
@@ -2685,11 +2679,11 @@
       <c r="B79">
         <v>70</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>91</v>
+      <c r="C79" t="s">
+        <v>72</v>
       </c>
       <c r="D79">
-        <v>810</v>
+        <v>830</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
@@ -2703,11 +2697,11 @@
       <c r="B80">
         <v>70</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>92</v>
+      <c r="C80" t="s">
+        <v>73</v>
       </c>
       <c r="D80">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
@@ -2722,49 +2716,13 @@
         <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D81">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>59</v>
-      </c>
-      <c r="B82">
-        <v>70</v>
-      </c>
-      <c r="C82" t="s">
-        <v>73</v>
-      </c>
-      <c r="D82">
-        <v>840</v>
-      </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>59</v>
-      </c>
-      <c r="B83">
-        <v>70</v>
-      </c>
-      <c r="C83" t="s">
-        <v>74</v>
-      </c>
-      <c r="D83">
-        <v>850</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AD3C94-5227-4BB8-9397-4EC7984F420E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6043456-51CA-4C50-827A-DA833DAE511B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -308,13 +308,13 @@
     <t># Residential Aged Care Molnupiravir Prescriptions (Daily)</t>
   </si>
   <si>
-    <t>% Residential Aged Care Molnupiravir Prescriptions (Daily) per Case</t>
-  </si>
-  <si>
     <t># Residential Aged Care Paxlovid Prescriptions (Daily)</t>
   </si>
   <si>
-    <t>% Residential Aged Care Paxlovid Prescriptions (Daily) per Case</t>
+    <t>% Residential Aged Care Molnupiravir Prescriptions per Case</t>
+  </si>
+  <si>
+    <t>% Residential Aged Care Paxlovid Prescriptions per Case</t>
   </si>
 </sst>
 </file>
@@ -2626,7 +2626,7 @@
         <v>70</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D76">
         <v>790</v>
@@ -2644,7 +2644,7 @@
         <v>70</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77">
         <v>800</v>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6043456-51CA-4C50-827A-DA833DAE511B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B52427-2888-43C8-BD52-D7388FE6CB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="96">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>% Residential Aged Care Paxlovid Prescriptions per Case</t>
+  </si>
+  <si>
+    <t># Residential Aged Care Molnupiravir Prescriptions</t>
+  </si>
+  <si>
+    <t># Residential Aged Care Paxlovid Prescriptions</t>
   </si>
 </sst>
 </file>
@@ -876,8 +882,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F81" totalsRowShown="0">
-  <autoFilter ref="A1:F81" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F83" totalsRowShown="0">
+  <autoFilter ref="A1:F83" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Metric Catergory"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Metric Catergory - Sort"/>
@@ -1187,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+      <selection activeCell="F74" sqref="F74:F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2608,7 +2614,7 @@
         <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D75">
         <v>770</v>
@@ -2626,10 +2632,10 @@
         <v>70</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D76">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
@@ -2644,10 +2650,10 @@
         <v>70</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D77">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
@@ -2662,10 +2668,10 @@
         <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D78">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
@@ -2679,11 +2685,11 @@
       <c r="B79">
         <v>70</v>
       </c>
-      <c r="C79" t="s">
-        <v>72</v>
+      <c r="C79" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D79">
-        <v>830</v>
+        <v>810</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
@@ -2697,11 +2703,11 @@
       <c r="B80">
         <v>70</v>
       </c>
-      <c r="C80" t="s">
-        <v>73</v>
+      <c r="C80" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D80">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
@@ -2716,13 +2722,49 @@
         <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D81">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82">
+        <v>70</v>
+      </c>
+      <c r="C82" t="s">
+        <v>73</v>
+      </c>
+      <c r="D82">
+        <v>840</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>59</v>
+      </c>
+      <c r="B83">
+        <v>70</v>
+      </c>
+      <c r="C83" t="s">
+        <v>74</v>
+      </c>
+      <c r="D83">
+        <v>850</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B52427-2888-43C8-BD52-D7388FE6CB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD9BEA4-5390-4FFC-8CA0-FC2D81D3BB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="97">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t># Residential Aged Care Paxlovid Prescriptions</t>
+  </si>
+  <si>
+    <t># Residential Aged Care Resident Cases (Daily)</t>
   </si>
 </sst>
 </file>
@@ -882,8 +885,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F83" totalsRowShown="0">
-  <autoFilter ref="A1:F83" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F84" totalsRowShown="0">
+  <autoFilter ref="A1:F84" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Metric Catergory"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Metric Catergory - Sort"/>
@@ -1193,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74:F78"/>
+      <selection activeCell="F72" sqref="F72:F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2560,7 +2563,7 @@
         <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D72">
         <v>740</v>
@@ -2578,7 +2581,7 @@
         <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D73">
         <v>750</v>
@@ -2596,7 +2599,7 @@
         <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D74">
         <v>760</v>
@@ -2608,13 +2611,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B75">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D75">
         <v>770</v>
@@ -2632,7 +2635,7 @@
         <v>70</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D76">
         <v>780</v>
@@ -2650,7 +2653,7 @@
         <v>70</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D77">
         <v>790</v>
@@ -2668,7 +2671,7 @@
         <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D78">
         <v>800</v>
@@ -2686,7 +2689,7 @@
         <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D79">
         <v>810</v>
@@ -2704,7 +2707,7 @@
         <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D80">
         <v>820</v>
@@ -2721,8 +2724,8 @@
       <c r="B81">
         <v>70</v>
       </c>
-      <c r="C81" t="s">
-        <v>72</v>
+      <c r="C81" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D81">
         <v>830</v>
@@ -2740,7 +2743,7 @@
         <v>70</v>
       </c>
       <c r="C82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D82">
         <v>840</v>
@@ -2758,13 +2761,31 @@
         <v>70</v>
       </c>
       <c r="C83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D83">
         <v>850</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84">
+        <v>70</v>
+      </c>
+      <c r="C84" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84">
+        <v>860</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD9BEA4-5390-4FFC-8CA0-FC2D81D3BB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6C4A01-F58E-46A7-82D4-74C22F9EDD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,34 +296,34 @@
     <t>% Aged Care Outbreaks Facilities (Weekly) Change</t>
   </si>
   <si>
-    <t># Residential Aged Care Staff Cases (Weekly) per 1M</t>
-  </si>
-  <si>
-    <t># Residential Aged Care Staff Cases (Weekly)</t>
-  </si>
-  <si>
-    <t># Residential Aged Care Resident Cases (Weekly)</t>
-  </si>
-  <si>
-    <t># Residential Aged Care Molnupiravir Prescriptions (Daily)</t>
-  </si>
-  <si>
-    <t># Residential Aged Care Paxlovid Prescriptions (Daily)</t>
-  </si>
-  <si>
-    <t>% Residential Aged Care Molnupiravir Prescriptions per Case</t>
-  </si>
-  <si>
-    <t>% Residential Aged Care Paxlovid Prescriptions per Case</t>
-  </si>
-  <si>
-    <t># Residential Aged Care Molnupiravir Prescriptions</t>
-  </si>
-  <si>
-    <t># Residential Aged Care Paxlovid Prescriptions</t>
-  </si>
-  <si>
-    <t># Residential Aged Care Resident Cases (Daily)</t>
+    <t># Resident Cases (Daily) - Residential Aged Care</t>
+  </si>
+  <si>
+    <t># Resident Cases (Weekly) - Residential Aged Care</t>
+  </si>
+  <si>
+    <t># Staff Cases (Weekly) - Residential Aged Care</t>
+  </si>
+  <si>
+    <t># Staff Cases (Weekly) per 1M -  Residential Aged Care</t>
+  </si>
+  <si>
+    <t># Molnupiravir Prescriptions - Residential Aged Care</t>
+  </si>
+  <si>
+    <t># Molnupiravir Prescriptions (Daily) - Residential Aged Care</t>
+  </si>
+  <si>
+    <t>% Molnupiravir Prescriptions per Case - Residential Aged Care</t>
+  </si>
+  <si>
+    <t># Paxlovid Prescriptions - Residential Aged Care</t>
+  </si>
+  <si>
+    <t># Paxlovid Prescriptions (Daily) -  Residential Aged Care</t>
+  </si>
+  <si>
+    <t>% Paxlovid Prescriptions per Case - Residential Aged Care</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1199,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72:F73"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2563,7 +2563,7 @@
         <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D72">
         <v>740</v>
@@ -2581,7 +2581,7 @@
         <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D73">
         <v>750</v>
@@ -2599,7 +2599,7 @@
         <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D74">
         <v>760</v>
@@ -2617,7 +2617,7 @@
         <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D75">
         <v>770</v>
@@ -2635,7 +2635,7 @@
         <v>70</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D76">
         <v>780</v>
@@ -2653,7 +2653,7 @@
         <v>70</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D77">
         <v>790</v>
@@ -2671,7 +2671,7 @@
         <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D78">
         <v>800</v>
@@ -2689,7 +2689,7 @@
         <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D79">
         <v>810</v>
@@ -2707,7 +2707,7 @@
         <v>70</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D80">
         <v>820</v>
@@ -2725,7 +2725,7 @@
         <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D81">
         <v>830</v>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6C4A01-F58E-46A7-82D4-74C22F9EDD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EA1313-B8BC-4826-A295-ABD9B42C4D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -305,9 +305,6 @@
     <t># Staff Cases (Weekly) - Residential Aged Care</t>
   </si>
   <si>
-    <t># Staff Cases (Weekly) per 1M -  Residential Aged Care</t>
-  </si>
-  <si>
     <t># Molnupiravir Prescriptions - Residential Aged Care</t>
   </si>
   <si>
@@ -320,10 +317,13 @@
     <t># Paxlovid Prescriptions - Residential Aged Care</t>
   </si>
   <si>
-    <t># Paxlovid Prescriptions (Daily) -  Residential Aged Care</t>
-  </si>
-  <si>
     <t>% Paxlovid Prescriptions per Case - Residential Aged Care</t>
+  </si>
+  <si>
+    <t># Paxlovid Prescriptions (Daily) - Residential Aged Care</t>
+  </si>
+  <si>
+    <t># Staff Cases (Weekly) per 1M - Residential Aged Care</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1199,7 @@
   <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2617,7 +2617,7 @@
         <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D75">
         <v>770</v>
@@ -2635,7 +2635,7 @@
         <v>70</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D76">
         <v>780</v>
@@ -2653,7 +2653,7 @@
         <v>70</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77">
         <v>790</v>
@@ -2671,7 +2671,7 @@
         <v>70</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D78">
         <v>800</v>
@@ -2689,7 +2689,7 @@
         <v>70</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D79">
         <v>810</v>
@@ -2725,7 +2725,7 @@
         <v>70</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D81">
         <v>830</v>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EA1313-B8BC-4826-A295-ABD9B42C4D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BECFCA8-0EAC-4461-BF80-28EA3A2414ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="109">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -324,6 +324,42 @@
   </si>
   <si>
     <t># Staff Cases (Weekly) per 1M - Residential Aged Care</t>
+  </si>
+  <si>
+    <t>Certified deaths - Total</t>
+  </si>
+  <si>
+    <t>Certified deaths - COVID-19</t>
+  </si>
+  <si>
+    <t>Certified deaths - Respiratory diseases</t>
+  </si>
+  <si>
+    <t>Certified deaths - Influenza and pneumonia</t>
+  </si>
+  <si>
+    <t>Certified deaths - Pneumonia</t>
+  </si>
+  <si>
+    <t>Certified deaths - Chronic lower respiratory conditions</t>
+  </si>
+  <si>
+    <t>Certified deaths - Cancer</t>
+  </si>
+  <si>
+    <t>Certified deaths - Ischaemic heart diseases</t>
+  </si>
+  <si>
+    <t>Certified deaths - Other cardiac conditions</t>
+  </si>
+  <si>
+    <t>Certified deaths - Cerebrovascular diseases</t>
+  </si>
+  <si>
+    <t>Certified deaths - Dementia including Alzheimers</t>
+  </si>
+  <si>
+    <t>Certified deaths - Diabetes</t>
   </si>
 </sst>
 </file>
@@ -813,12 +849,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -885,8 +922,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F84" totalsRowShown="0">
-  <autoFilter ref="A1:F84" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F96" totalsRowShown="0">
+  <autoFilter ref="A1:F96" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Metric Catergory"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Metric Catergory - Sort"/>
@@ -1196,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1953,445 +1990,445 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>40</v>
-      </c>
-      <c r="C39" t="s">
         <v>30</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D39">
         <v>380</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>40</v>
-      </c>
-      <c r="C40" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="D40">
         <v>390</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>40</v>
-      </c>
-      <c r="C41" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="D41">
         <v>400</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="D42">
         <v>410</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>40</v>
-      </c>
-      <c r="C43" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="D43">
         <v>420</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>40</v>
-      </c>
-      <c r="C44" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D44">
         <v>430</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>40</v>
-      </c>
-      <c r="C45" t="s">
-        <v>70</v>
+        <v>30</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="D45">
         <v>440</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46">
-        <v>40</v>
-      </c>
-      <c r="C46" t="s">
-        <v>71</v>
+        <v>30</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D46">
         <v>450</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>50</v>
-      </c>
-      <c r="C47" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="D47">
         <v>460</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>50</v>
-      </c>
-      <c r="C48" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D48">
         <v>470</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>50</v>
-      </c>
-      <c r="C49" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="D49">
         <v>480</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>50</v>
-      </c>
-      <c r="C50" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D50">
         <v>490</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>60</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
       </c>
       <c r="D51">
         <v>500</v>
       </c>
-      <c r="E51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F51" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52">
-        <v>60</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="C52" t="s">
+        <v>31</v>
       </c>
       <c r="D52">
         <v>510</v>
       </c>
-      <c r="E52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F52" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53">
-        <v>60</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
       </c>
       <c r="D53">
         <v>520</v>
       </c>
-      <c r="E53" s="1"/>
+      <c r="E53" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F53" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B54">
-        <v>60</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>68</v>
+        <v>40</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
       </c>
       <c r="D54">
         <v>530</v>
       </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E54" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B55">
-        <v>60</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>75</v>
+        <v>40</v>
+      </c>
+      <c r="C55" t="s">
+        <v>34</v>
       </c>
       <c r="D55">
-        <v>550</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B56">
-        <v>60</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>76</v>
+        <v>40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
       </c>
       <c r="D56">
-        <v>560</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B57">
-        <v>60</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>77</v>
+        <v>40</v>
+      </c>
+      <c r="C57" t="s">
+        <v>70</v>
       </c>
       <c r="D57">
-        <v>570</v>
-      </c>
-      <c r="E57" s="1"/>
+        <v>560</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F57" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B58">
-        <v>60</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
+      </c>
+      <c r="C58" t="s">
+        <v>71</v>
       </c>
       <c r="D58">
-        <v>580</v>
-      </c>
-      <c r="E58" s="1"/>
+        <v>570</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F58" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59">
-        <v>60</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
       </c>
       <c r="D59">
-        <v>590</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60">
-        <v>60</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
       </c>
       <c r="D60">
-        <v>600</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61">
-        <v>60</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
       </c>
       <c r="D61">
-        <v>610</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62">
-        <v>60</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
       </c>
       <c r="D62">
-        <v>640</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
@@ -2401,10 +2438,10 @@
         <v>60</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D63">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
@@ -2419,10 +2456,10 @@
         <v>60</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D64">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
@@ -2436,11 +2473,11 @@
       <c r="B65">
         <v>60</v>
       </c>
-      <c r="C65" t="s">
-        <v>58</v>
+      <c r="C65" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D65">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
@@ -2454,11 +2491,11 @@
       <c r="B66">
         <v>60</v>
       </c>
-      <c r="C66" t="s">
-        <v>60</v>
+      <c r="C66" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D66">
-        <v>680</v>
+        <v>650</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
@@ -2472,11 +2509,11 @@
       <c r="B67">
         <v>60</v>
       </c>
-      <c r="C67" t="s">
-        <v>61</v>
+      <c r="C67" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D67">
-        <v>690</v>
+        <v>660</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
@@ -2490,11 +2527,11 @@
       <c r="B68">
         <v>60</v>
       </c>
-      <c r="C68" t="s">
-        <v>62</v>
+      <c r="C68" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="D68">
-        <v>700</v>
+        <v>670</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
@@ -2509,10 +2546,10 @@
         <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D69">
-        <v>710</v>
+        <v>680</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
@@ -2527,10 +2564,10 @@
         <v>60</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D70">
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
@@ -2545,10 +2582,10 @@
         <v>60</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D71">
-        <v>730</v>
+        <v>700</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
@@ -2563,10 +2600,10 @@
         <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D72">
-        <v>740</v>
+        <v>710</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
@@ -2581,10 +2618,10 @@
         <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D73">
-        <v>750</v>
+        <v>720</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
@@ -2599,10 +2636,10 @@
         <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D74">
-        <v>760</v>
+        <v>730</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
@@ -2617,10 +2654,10 @@
         <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D75">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
@@ -2629,16 +2666,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B76">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D76">
-        <v>780</v>
+        <v>750</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
@@ -2647,16 +2684,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B77">
-        <v>70</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>91</v>
+        <v>60</v>
+      </c>
+      <c r="C77" t="s">
+        <v>58</v>
       </c>
       <c r="D77">
-        <v>790</v>
+        <v>760</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
@@ -2665,16 +2702,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B78">
-        <v>70</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
+      </c>
+      <c r="C78" t="s">
+        <v>60</v>
       </c>
       <c r="D78">
-        <v>800</v>
+        <v>770</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
@@ -2683,16 +2720,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B79">
-        <v>70</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>93</v>
+        <v>60</v>
+      </c>
+      <c r="C79" t="s">
+        <v>61</v>
       </c>
       <c r="D79">
-        <v>810</v>
+        <v>780</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
@@ -2701,16 +2738,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B80">
-        <v>70</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>95</v>
+        <v>60</v>
+      </c>
+      <c r="C80" t="s">
+        <v>62</v>
       </c>
       <c r="D80">
-        <v>820</v>
+        <v>790</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
@@ -2719,16 +2756,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B81">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D81">
-        <v>830</v>
+        <v>800</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
@@ -2737,16 +2774,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B82">
-        <v>70</v>
-      </c>
-      <c r="C82" t="s">
-        <v>72</v>
+        <v>60</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D82">
-        <v>840</v>
+        <v>810</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
@@ -2755,16 +2792,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B83">
-        <v>70</v>
-      </c>
-      <c r="C83" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D83">
-        <v>850</v>
+        <v>820</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
@@ -2773,19 +2810,235 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B84">
-        <v>70</v>
-      </c>
-      <c r="C84" t="s">
-        <v>74</v>
+        <v>60</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D84">
-        <v>860</v>
+        <v>830</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85">
+        <v>60</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85">
+        <v>840</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>51</v>
+      </c>
+      <c r="B86">
+        <v>60</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86">
+        <v>850</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87">
+        <v>60</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87">
+        <v>860</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>59</v>
+      </c>
+      <c r="B88">
+        <v>70</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88">
+        <v>870</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89">
+        <v>70</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89">
+        <v>880</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>59</v>
+      </c>
+      <c r="B90">
+        <v>70</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90">
+        <v>890</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>59</v>
+      </c>
+      <c r="B91">
+        <v>70</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91">
+        <v>900</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92">
+        <v>70</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92">
+        <v>910</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>59</v>
+      </c>
+      <c r="B93">
+        <v>70</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D93">
+        <v>920</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94">
+        <v>70</v>
+      </c>
+      <c r="C94" t="s">
+        <v>72</v>
+      </c>
+      <c r="D94">
+        <v>930</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>59</v>
+      </c>
+      <c r="B95">
+        <v>70</v>
+      </c>
+      <c r="C95" t="s">
+        <v>73</v>
+      </c>
+      <c r="D95">
+        <v>940</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96">
+        <v>70</v>
+      </c>
+      <c r="C96" t="s">
+        <v>74</v>
+      </c>
+      <c r="D96">
+        <v>950</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BECFCA8-0EAC-4461-BF80-28EA3A2414ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415809B9-9FD4-4B1E-BBC3-E1C194DD301A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,40 +326,40 @@
     <t># Staff Cases (Weekly) per 1M - Residential Aged Care</t>
   </si>
   <si>
-    <t>Certified deaths - Total</t>
-  </si>
-  <si>
-    <t>Certified deaths - COVID-19</t>
-  </si>
-  <si>
-    <t>Certified deaths - Respiratory diseases</t>
-  </si>
-  <si>
-    <t>Certified deaths - Influenza and pneumonia</t>
-  </si>
-  <si>
-    <t>Certified deaths - Pneumonia</t>
-  </si>
-  <si>
-    <t>Certified deaths - Chronic lower respiratory conditions</t>
-  </si>
-  <si>
-    <t>Certified deaths - Cancer</t>
-  </si>
-  <si>
-    <t>Certified deaths - Ischaemic heart diseases</t>
-  </si>
-  <si>
-    <t>Certified deaths - Other cardiac conditions</t>
-  </si>
-  <si>
-    <t>Certified deaths - Cerebrovascular diseases</t>
-  </si>
-  <si>
-    <t>Certified deaths - Dementia including Alzheimers</t>
-  </si>
-  <si>
-    <t>Certified deaths - Diabetes</t>
+    <t># Certified deaths - COVID-19</t>
+  </si>
+  <si>
+    <t># Certified deaths - Cancer</t>
+  </si>
+  <si>
+    <t># Certified deaths - Cerebrovascular diseases</t>
+  </si>
+  <si>
+    <t># Certified deaths - Chronic lower respiratory conditions</t>
+  </si>
+  <si>
+    <t># Certified deaths - Dementia including Alzheimers</t>
+  </si>
+  <si>
+    <t># Certified deaths - Diabetes</t>
+  </si>
+  <si>
+    <t># Certified deaths - Influenza and pneumonia</t>
+  </si>
+  <si>
+    <t># Certified deaths - Ischaemic heart diseases</t>
+  </si>
+  <si>
+    <t># Certified deaths - Other cardiac conditions</t>
+  </si>
+  <si>
+    <t># Certified deaths - Pneumonia</t>
+  </si>
+  <si>
+    <t># Certified deaths - Respiratory diseases</t>
+  </si>
+  <si>
+    <t># Certified deaths - Total</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1996,7 +1996,7 @@
         <v>30</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39">
         <v>380</v>
@@ -2014,7 +2014,7 @@
         <v>30</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D40">
         <v>390</v>
@@ -2032,7 +2032,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D41">
         <v>400</v>
@@ -2050,7 +2050,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D42">
         <v>410</v>
@@ -2068,7 +2068,7 @@
         <v>30</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D43">
         <v>420</v>
@@ -2086,7 +2086,7 @@
         <v>30</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D44">
         <v>430</v>
@@ -2104,7 +2104,7 @@
         <v>30</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D45">
         <v>440</v>
@@ -2158,7 +2158,7 @@
         <v>30</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D48">
         <v>470</v>
@@ -2176,7 +2176,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D49">
         <v>480</v>
@@ -2194,7 +2194,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D50">
         <v>490</v>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415809B9-9FD4-4B1E-BBC3-E1C194DD301A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C503007-4477-4D0A-A464-983165DCA74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="110">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t># Certified deaths - Total</t>
+  </si>
+  <si>
+    <t>NNDSS</t>
   </si>
 </sst>
 </file>
@@ -849,13 +852,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -922,15 +924,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:F96" totalsRowShown="0">
-  <autoFilter ref="A1:F96" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:G96" totalsRowShown="0">
+  <autoFilter ref="A1:G96" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Metric Catergory"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Metric Catergory - Sort"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Metric"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Metric - Sort"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="covidlive.com.au" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="health.gov.au" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{A095DB30-0F8C-474D-82E2-320F2AB838E7}" name="NNDSS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1233,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1248,7 +1251,7 @@
     <col min="5" max="5" width="14.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1267,8 +1270,11 @@
       <c r="F1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1287,8 +1293,11 @@
       <c r="F2" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1307,8 +1316,11 @@
       <c r="F3" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1327,8 +1339,11 @@
       <c r="F4" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1346,7 +1361,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1364,7 +1379,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1383,8 +1398,11 @@
       <c r="F7" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1404,7 +1422,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1422,7 +1440,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1442,7 +1460,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1460,7 +1478,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1480,7 +1498,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1500,7 +1518,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1518,7 +1536,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1536,7 +1554,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -1995,7 +2013,7 @@
       <c r="B39">
         <v>30</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D39">
@@ -2013,7 +2031,7 @@
       <c r="B40">
         <v>30</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D40">
@@ -2031,7 +2049,7 @@
       <c r="B41">
         <v>30</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D41">
@@ -2049,7 +2067,7 @@
       <c r="B42">
         <v>30</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D42">
@@ -2067,7 +2085,7 @@
       <c r="B43">
         <v>30</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D43">
@@ -2085,7 +2103,7 @@
       <c r="B44">
         <v>30</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D44">
@@ -2103,7 +2121,7 @@
       <c r="B45">
         <v>30</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D45">
@@ -2121,7 +2139,7 @@
       <c r="B46">
         <v>30</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D46">
@@ -2139,7 +2157,7 @@
       <c r="B47">
         <v>30</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>105</v>
       </c>
       <c r="D47">
@@ -2157,7 +2175,7 @@
       <c r="B48">
         <v>30</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D48">
@@ -2175,7 +2193,7 @@
       <c r="B49">
         <v>30</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D49">
@@ -2193,7 +2211,7 @@
       <c r="B50">
         <v>30</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D50">

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C503007-4477-4D0A-A464-983165DCA74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7563164-AA94-4A15-938E-599D7353EFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="110">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1535,6 +1535,9 @@
       <c r="F14" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
@@ -1553,6 +1556,9 @@
       <c r="F15" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
@@ -1569,6 +1575,9 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7563164-AA94-4A15-938E-599D7353EFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D669436-EFBA-43D2-BBBC-50A6CA77CC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="111">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>NNDSS</t>
+  </si>
+  <si>
+    <t># Cases per 1M (Cumulative)</t>
   </si>
 </sst>
 </file>
@@ -924,8 +927,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:G96" totalsRowShown="0">
-  <autoFilter ref="A1:G96" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:G97" totalsRowShown="0">
+  <autoFilter ref="A1:G97" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Metric Catergory"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Metric Catergory - Sort"/>
@@ -1236,10 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E5" sqref="E5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1351,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -1359,7 +1362,12 @@
       <c r="E5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -1369,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -1387,7 +1395,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>60</v>
@@ -1395,12 +1403,7 @@
       <c r="E7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -1410,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>70</v>
@@ -1419,6 +1422,9 @@
         <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1430,7 +1436,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>80</v>
@@ -1438,7 +1444,9 @@
       <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -1448,7 +1456,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>90</v>
@@ -1456,9 +1464,7 @@
       <c r="E10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -1468,7 +1474,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>100</v>
@@ -1476,7 +1482,9 @@
       <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -1486,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>110</v>
@@ -1494,9 +1502,7 @@
       <c r="E12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
@@ -1506,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>120</v>
@@ -1526,16 +1532,15 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>130</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1547,7 +1552,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15">
         <v>140</v>
@@ -1568,7 +1573,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16">
         <v>150</v>
@@ -1581,27 +1586,28 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="D17">
         <v>160</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -1609,7 +1615,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <v>170</v>
@@ -1621,7 +1627,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1629,7 +1635,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>180</v>
@@ -1641,7 +1647,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1649,7 +1655,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>190</v>
@@ -1661,7 +1667,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1669,7 +1675,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -1681,7 +1687,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1689,7 +1695,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22">
         <v>210</v>
@@ -1701,7 +1707,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -1709,7 +1715,7 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23">
         <v>220</v>
@@ -1721,7 +1727,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1729,7 +1735,7 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24">
         <v>230</v>
@@ -1741,7 +1747,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1749,17 +1755,19 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D25">
         <v>240</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -1767,7 +1775,7 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26">
         <v>250</v>
@@ -1777,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -1785,7 +1793,7 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27">
         <v>260</v>
@@ -1795,27 +1803,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B28">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D28">
         <v>270</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E28" s="1"/>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1823,7 +1829,7 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29">
         <v>280</v>
@@ -1835,7 +1841,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -1843,7 +1849,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30">
         <v>290</v>
@@ -1855,7 +1861,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>48</v>
       </c>
@@ -1863,7 +1869,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31">
         <v>300</v>
@@ -1875,7 +1881,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -1883,7 +1889,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32">
         <v>310</v>
@@ -1903,7 +1909,7 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33">
         <v>320</v>
@@ -1923,7 +1929,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34">
         <v>330</v>
@@ -1943,7 +1949,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35">
         <v>340</v>
@@ -1963,7 +1969,7 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36">
         <v>350</v>
@@ -1983,7 +1989,7 @@
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37">
         <v>360</v>
@@ -2003,7 +2009,7 @@
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38">
         <v>370</v>
@@ -2022,13 +2028,15 @@
       <c r="B39">
         <v>30</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>97</v>
+      <c r="C39" t="s">
+        <v>29</v>
       </c>
       <c r="D39">
         <v>380</v>
       </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F39" s="1" t="s">
         <v>42</v>
       </c>
@@ -2041,7 +2049,7 @@
         <v>30</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40">
         <v>390</v>
@@ -2059,7 +2067,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41">
         <v>400</v>
@@ -2077,7 +2085,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D42">
         <v>410</v>
@@ -2095,7 +2103,7 @@
         <v>30</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D43">
         <v>420</v>
@@ -2113,7 +2121,7 @@
         <v>30</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D44">
         <v>430</v>
@@ -2131,7 +2139,7 @@
         <v>30</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D45">
         <v>440</v>
@@ -2149,7 +2157,7 @@
         <v>30</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46">
         <v>450</v>
@@ -2167,7 +2175,7 @@
         <v>30</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47">
         <v>460</v>
@@ -2185,7 +2193,7 @@
         <v>30</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D48">
         <v>470</v>
@@ -2203,7 +2211,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D49">
         <v>480</v>
@@ -2221,7 +2229,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D50">
         <v>490</v>
@@ -2233,20 +2241,18 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51">
-        <v>40</v>
-      </c>
-      <c r="C51" t="s">
         <v>30</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="D51">
         <v>500</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
         <v>42</v>
       </c>
@@ -2259,7 +2265,7 @@
         <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D52">
         <v>510</v>
@@ -2279,7 +2285,7 @@
         <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D53">
         <v>520</v>
@@ -2299,7 +2305,7 @@
         <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D54">
         <v>530</v>
@@ -2307,7 +2313,9 @@
       <c r="E54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F54" s="1"/>
+      <c r="F54" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
@@ -2317,7 +2325,7 @@
         <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D55">
         <v>540</v>
@@ -2335,7 +2343,7 @@
         <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D56">
         <v>550</v>
@@ -2353,7 +2361,7 @@
         <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D57">
         <v>560</v>
@@ -2361,9 +2369,7 @@
       <c r="E57" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
@@ -2373,7 +2379,7 @@
         <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D58">
         <v>570</v>
@@ -2387,13 +2393,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D59">
         <v>580</v>
@@ -2401,7 +2407,9 @@
       <c r="E59" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
@@ -2411,7 +2419,7 @@
         <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D60">
         <v>590</v>
@@ -2429,7 +2437,7 @@
         <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D61">
         <v>600</v>
@@ -2447,7 +2455,7 @@
         <v>50</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D62">
         <v>610</v>
@@ -2459,21 +2467,21 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63">
-        <v>60</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="C63" t="s">
+        <v>39</v>
       </c>
       <c r="D63">
         <v>620</v>
       </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
@@ -2483,7 +2491,7 @@
         <v>60</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D64">
         <v>630</v>
@@ -2501,7 +2509,7 @@
         <v>60</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D65">
         <v>640</v>
@@ -2519,7 +2527,7 @@
         <v>60</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D66">
         <v>650</v>
@@ -2537,7 +2545,7 @@
         <v>60</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D67">
         <v>660</v>
@@ -2555,7 +2563,7 @@
         <v>60</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D68">
         <v>670</v>
@@ -2573,7 +2581,7 @@
         <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D69">
         <v>680</v>
@@ -2591,7 +2599,7 @@
         <v>60</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D70">
         <v>690</v>
@@ -2609,7 +2617,7 @@
         <v>60</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D71">
         <v>700</v>
@@ -2627,7 +2635,7 @@
         <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D72">
         <v>710</v>
@@ -2645,7 +2653,7 @@
         <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D73">
         <v>720</v>
@@ -2663,7 +2671,7 @@
         <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D74">
         <v>730</v>
@@ -2681,7 +2689,7 @@
         <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D75">
         <v>740</v>
@@ -2699,7 +2707,7 @@
         <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D76">
         <v>750</v>
@@ -2716,8 +2724,8 @@
       <c r="B77">
         <v>60</v>
       </c>
-      <c r="C77" t="s">
-        <v>58</v>
+      <c r="C77" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="D77">
         <v>760</v>
@@ -2735,7 +2743,7 @@
         <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D78">
         <v>770</v>
@@ -2753,7 +2761,7 @@
         <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D79">
         <v>780</v>
@@ -2771,7 +2779,7 @@
         <v>60</v>
       </c>
       <c r="C80" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D80">
         <v>790</v>
@@ -2788,8 +2796,8 @@
       <c r="B81">
         <v>60</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>84</v>
+      <c r="C81" t="s">
+        <v>62</v>
       </c>
       <c r="D81">
         <v>800</v>
@@ -2807,7 +2815,7 @@
         <v>60</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D82">
         <v>810</v>
@@ -2825,7 +2833,7 @@
         <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D83">
         <v>820</v>
@@ -2843,7 +2851,7 @@
         <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D84">
         <v>830</v>
@@ -2861,7 +2869,7 @@
         <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D85">
         <v>840</v>
@@ -2879,7 +2887,7 @@
         <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D86">
         <v>850</v>
@@ -2897,7 +2905,7 @@
         <v>60</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D87">
         <v>860</v>
@@ -2909,13 +2917,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B88">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D88">
         <v>870</v>
@@ -2933,7 +2941,7 @@
         <v>70</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D89">
         <v>880</v>
@@ -2951,7 +2959,7 @@
         <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90">
         <v>890</v>
@@ -2969,7 +2977,7 @@
         <v>70</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D91">
         <v>900</v>
@@ -2987,7 +2995,7 @@
         <v>70</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D92">
         <v>910</v>
@@ -3005,7 +3013,7 @@
         <v>70</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D93">
         <v>920</v>
@@ -3022,8 +3030,8 @@
       <c r="B94">
         <v>70</v>
       </c>
-      <c r="C94" t="s">
-        <v>72</v>
+      <c r="C94" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D94">
         <v>930</v>
@@ -3041,7 +3049,7 @@
         <v>70</v>
       </c>
       <c r="C95" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D95">
         <v>940</v>
@@ -3059,13 +3067,31 @@
         <v>70</v>
       </c>
       <c r="C96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D96">
         <v>950</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>59</v>
+      </c>
+      <c r="B97">
+        <v>70</v>
+      </c>
+      <c r="C97" t="s">
+        <v>74</v>
+      </c>
+      <c r="D97">
+        <v>960</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D669436-EFBA-43D2-BBBC-50A6CA77CC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EB1A1B-E0F6-4F35-AEAB-D1BAB6762F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="112">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t># Cases per 1M (Cumulative)</t>
+  </si>
+  <si>
+    <t># Cases (1-year rolling average)</t>
   </si>
 </sst>
 </file>
@@ -927,8 +930,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:G97" totalsRowShown="0">
-  <autoFilter ref="A1:G97" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:G98" totalsRowShown="0">
+  <autoFilter ref="A1:G98" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Metric Catergory"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Metric Catergory - Sort"/>
@@ -1239,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:G5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1413,7 +1416,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="D8">
         <v>70</v>
@@ -1436,7 +1439,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>80</v>
@@ -1445,6 +1448,9 @@
         <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1456,7 +1462,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>90</v>
@@ -1464,7 +1470,9 @@
       <c r="E10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -1474,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>100</v>
@@ -1482,9 +1490,7 @@
       <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -1494,7 +1500,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>110</v>
@@ -1502,7 +1508,9 @@
       <c r="E12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
@@ -1512,7 +1520,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>120</v>
@@ -1520,9 +1528,7 @@
       <c r="E13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
@@ -1532,7 +1538,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>130</v>
@@ -1552,16 +1558,15 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>140</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1573,7 +1578,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16">
         <v>150</v>
@@ -1594,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17">
         <v>160</v>
@@ -1609,21 +1614,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="D18">
         <v>170</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1635,7 +1641,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <v>180</v>
@@ -1655,7 +1661,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <v>190</v>
@@ -1675,7 +1681,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>200</v>
@@ -1695,7 +1701,7 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>210</v>
@@ -1715,7 +1721,7 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <v>220</v>
@@ -1735,7 +1741,7 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <v>230</v>
@@ -1755,7 +1761,7 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25">
         <v>240</v>
@@ -1775,14 +1781,16 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <v>250</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1">
-        <v>0</v>
+      <c r="E26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -1793,7 +1801,7 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27">
         <v>260</v>
@@ -1811,7 +1819,7 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28">
         <v>270</v>
@@ -1823,22 +1831,20 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D29">
         <v>280</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>42</v>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
@@ -1849,7 +1855,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30">
         <v>290</v>
@@ -1869,7 +1875,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31">
         <v>300</v>
@@ -1889,7 +1895,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32">
         <v>310</v>
@@ -1909,7 +1915,7 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33">
         <v>320</v>
@@ -1929,7 +1935,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34">
         <v>330</v>
@@ -1949,7 +1955,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D35">
         <v>340</v>
@@ -1969,7 +1975,7 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36">
         <v>350</v>
@@ -1989,7 +1995,7 @@
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37">
         <v>360</v>
@@ -2009,7 +2015,7 @@
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D38">
         <v>370</v>
@@ -2029,7 +2035,7 @@
         <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39">
         <v>380</v>
@@ -2048,13 +2054,15 @@
       <c r="B40">
         <v>30</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>97</v>
+      <c r="C40" t="s">
+        <v>29</v>
       </c>
       <c r="D40">
         <v>390</v>
       </c>
-      <c r="E40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F40" s="1" t="s">
         <v>42</v>
       </c>
@@ -2067,7 +2075,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D41">
         <v>400</v>
@@ -2085,7 +2093,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D42">
         <v>410</v>
@@ -2103,7 +2111,7 @@
         <v>30</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D43">
         <v>420</v>
@@ -2121,7 +2129,7 @@
         <v>30</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D44">
         <v>430</v>
@@ -2139,7 +2147,7 @@
         <v>30</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D45">
         <v>440</v>
@@ -2157,7 +2165,7 @@
         <v>30</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D46">
         <v>450</v>
@@ -2175,7 +2183,7 @@
         <v>30</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D47">
         <v>460</v>
@@ -2193,7 +2201,7 @@
         <v>30</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D48">
         <v>470</v>
@@ -2211,7 +2219,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D49">
         <v>480</v>
@@ -2229,7 +2237,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D50">
         <v>490</v>
@@ -2247,7 +2255,7 @@
         <v>30</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D51">
         <v>500</v>
@@ -2259,20 +2267,18 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52">
-        <v>40</v>
-      </c>
-      <c r="C52" t="s">
         <v>30</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="D52">
         <v>510</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
         <v>42</v>
       </c>
@@ -2285,7 +2291,7 @@
         <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53">
         <v>520</v>
@@ -2305,7 +2311,7 @@
         <v>40</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D54">
         <v>530</v>
@@ -2325,7 +2331,7 @@
         <v>40</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D55">
         <v>540</v>
@@ -2333,7 +2339,9 @@
       <c r="E55" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
@@ -2343,7 +2351,7 @@
         <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56">
         <v>550</v>
@@ -2361,7 +2369,7 @@
         <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D57">
         <v>560</v>
@@ -2379,7 +2387,7 @@
         <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D58">
         <v>570</v>
@@ -2387,9 +2395,7 @@
       <c r="E58" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
@@ -2399,7 +2405,7 @@
         <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D59">
         <v>580</v>
@@ -2413,13 +2419,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D60">
         <v>590</v>
@@ -2427,7 +2433,9 @@
       <c r="E60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
@@ -2437,7 +2445,7 @@
         <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D61">
         <v>600</v>
@@ -2455,7 +2463,7 @@
         <v>50</v>
       </c>
       <c r="C62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D62">
         <v>610</v>
@@ -2473,7 +2481,7 @@
         <v>50</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D63">
         <v>620</v>
@@ -2485,21 +2493,21 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64">
-        <v>60</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="C64" t="s">
+        <v>39</v>
       </c>
       <c r="D64">
         <v>630</v>
       </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
@@ -2509,7 +2517,7 @@
         <v>60</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D65">
         <v>640</v>
@@ -2527,7 +2535,7 @@
         <v>60</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D66">
         <v>650</v>
@@ -2545,7 +2553,7 @@
         <v>60</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D67">
         <v>660</v>
@@ -2563,7 +2571,7 @@
         <v>60</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D68">
         <v>670</v>
@@ -2581,7 +2589,7 @@
         <v>60</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D69">
         <v>680</v>
@@ -2599,7 +2607,7 @@
         <v>60</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D70">
         <v>690</v>
@@ -2617,7 +2625,7 @@
         <v>60</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D71">
         <v>700</v>
@@ -2635,7 +2643,7 @@
         <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D72">
         <v>710</v>
@@ -2653,7 +2661,7 @@
         <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D73">
         <v>720</v>
@@ -2671,7 +2679,7 @@
         <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D74">
         <v>730</v>
@@ -2689,7 +2697,7 @@
         <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D75">
         <v>740</v>
@@ -2707,7 +2715,7 @@
         <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D76">
         <v>750</v>
@@ -2725,7 +2733,7 @@
         <v>60</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D77">
         <v>760</v>
@@ -2742,8 +2750,8 @@
       <c r="B78">
         <v>60</v>
       </c>
-      <c r="C78" t="s">
-        <v>58</v>
+      <c r="C78" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="D78">
         <v>770</v>
@@ -2761,7 +2769,7 @@
         <v>60</v>
       </c>
       <c r="C79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D79">
         <v>780</v>
@@ -2779,7 +2787,7 @@
         <v>60</v>
       </c>
       <c r="C80" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D80">
         <v>790</v>
@@ -2797,7 +2805,7 @@
         <v>60</v>
       </c>
       <c r="C81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D81">
         <v>800</v>
@@ -2814,8 +2822,8 @@
       <c r="B82">
         <v>60</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>84</v>
+      <c r="C82" t="s">
+        <v>62</v>
       </c>
       <c r="D82">
         <v>810</v>
@@ -2833,7 +2841,7 @@
         <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D83">
         <v>820</v>
@@ -2851,7 +2859,7 @@
         <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D84">
         <v>830</v>
@@ -2869,7 +2877,7 @@
         <v>60</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D85">
         <v>840</v>
@@ -2887,7 +2895,7 @@
         <v>60</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D86">
         <v>850</v>
@@ -2905,7 +2913,7 @@
         <v>60</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D87">
         <v>860</v>
@@ -2923,7 +2931,7 @@
         <v>60</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D88">
         <v>870</v>
@@ -2935,13 +2943,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B89">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D89">
         <v>880</v>
@@ -2959,7 +2967,7 @@
         <v>70</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D90">
         <v>890</v>
@@ -2977,7 +2985,7 @@
         <v>70</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91">
         <v>900</v>
@@ -2995,7 +3003,7 @@
         <v>70</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D92">
         <v>910</v>
@@ -3013,7 +3021,7 @@
         <v>70</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D93">
         <v>920</v>
@@ -3031,7 +3039,7 @@
         <v>70</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D94">
         <v>930</v>
@@ -3048,8 +3056,8 @@
       <c r="B95">
         <v>70</v>
       </c>
-      <c r="C95" t="s">
-        <v>72</v>
+      <c r="C95" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D95">
         <v>940</v>
@@ -3067,7 +3075,7 @@
         <v>70</v>
       </c>
       <c r="C96" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D96">
         <v>950</v>
@@ -3085,13 +3093,31 @@
         <v>70</v>
       </c>
       <c r="C97" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D97">
         <v>960</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>59</v>
+      </c>
+      <c r="B98">
+        <v>70</v>
+      </c>
+      <c r="C98" t="s">
+        <v>74</v>
+      </c>
+      <c r="D98">
+        <v>970</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
         <v>42</v>
       </c>
     </row>

--- a/Metrics.xlsx
+++ b/Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-au-vaccinations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EB1A1B-E0F6-4F35-AEAB-D1BAB6762F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6093615-CAF2-4855-9A67-2A35B031C9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="119">
   <si>
     <t># Cases (7-day avg)</t>
   </si>
@@ -369,6 +369,27 @@
   </si>
   <si>
     <t># Cases (1-year rolling average)</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t># Registered deaths - COVID-19</t>
+  </si>
+  <si>
+    <t># Registered deaths - Influenza</t>
+  </si>
+  <si>
+    <t># Registered deaths - RSV</t>
+  </si>
+  <si>
+    <t># Registered deaths - COVID-19 (Cumulative)</t>
+  </si>
+  <si>
+    <t># Registered deaths - Influenza (Cumulative)</t>
+  </si>
+  <si>
+    <t># Registered deaths - RSV (Cumulative)</t>
   </si>
 </sst>
 </file>
@@ -930,9 +951,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:G98" totalsRowShown="0">
-  <autoFilter ref="A1:G98" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Metrics" displayName="Metrics" ref="A1:H104" totalsRowShown="0">
+  <autoFilter ref="A1:H104" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Metric Catergory"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Metric Catergory - Sort"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Metric"/>
@@ -940,6 +961,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="covidlive.com.au" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="health.gov.au" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{A095DB30-0F8C-474D-82E2-320F2AB838E7}" name="NNDSS"/>
+    <tableColumn id="8" xr3:uid="{D93DE384-1004-486B-9129-9F3D64E78D44}" name="ABS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1242,10 +1264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53:H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1257,7 +1279,7 @@
     <col min="5" max="5" width="14.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1279,8 +1301,11 @@
       <c r="G1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1303,7 +1328,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1326,7 +1351,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1349,7 +1374,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1372,7 +1397,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -1390,7 +1415,7 @@
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1408,7 +1433,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1431,7 +1456,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1454,7 +1479,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1474,7 +1499,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1492,7 +1517,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -1512,7 +1537,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1530,7 +1555,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1550,7 +1575,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1570,7 +1595,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -2211,7 +2236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2229,7 +2254,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -2247,7 +2272,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2265,7 +2290,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -2283,121 +2308,121 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53">
-        <v>40</v>
-      </c>
-      <c r="C53" t="s">
         <v>30</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D53">
         <v>520</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="H53" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54">
-        <v>40</v>
-      </c>
-      <c r="C54" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D54">
         <v>530</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55">
-        <v>40</v>
-      </c>
-      <c r="C55" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D55">
         <v>540</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="H55" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56">
-        <v>40</v>
-      </c>
-      <c r="C56" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D56">
         <v>550</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H56" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57">
-        <v>40</v>
-      </c>
-      <c r="C57" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D57">
         <v>560</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H57" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58">
-        <v>40</v>
-      </c>
-      <c r="C58" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="D58">
         <v>570</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H58" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -2405,7 +2430,7 @@
         <v>40</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D59">
         <v>580</v>
@@ -2417,7 +2442,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -2425,7 +2450,7 @@
         <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D60">
         <v>590</v>
@@ -2437,15 +2462,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B61">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D61">
         <v>600</v>
@@ -2453,17 +2478,19 @@
       <c r="E61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F61" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D62">
         <v>610</v>
@@ -2473,15 +2500,15 @@
       </c>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D63">
         <v>620</v>
@@ -2491,15 +2518,15 @@
       </c>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B64">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D64">
         <v>630</v>
@@ -2511,111 +2538,115 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B65">
-        <v>60</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="C65" t="s">
+        <v>70</v>
       </c>
       <c r="D65">
         <v>640</v>
       </c>
-      <c r="E65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F65" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B66">
-        <v>60</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="C66" t="s">
+        <v>71</v>
       </c>
       <c r="D66">
         <v>650</v>
       </c>
-      <c r="E66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="F66" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B67">
-        <v>60</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
       </c>
       <c r="D67">
         <v>660</v>
       </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E67" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67" s="1"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B68">
-        <v>60</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
       </c>
       <c r="D68">
         <v>670</v>
       </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69">
-        <v>60</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>75</v>
+        <v>50</v>
+      </c>
+      <c r="C69" t="s">
+        <v>38</v>
       </c>
       <c r="D69">
         <v>680</v>
       </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E69" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B70">
-        <v>60</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
+      </c>
+      <c r="C70" t="s">
+        <v>39</v>
       </c>
       <c r="D70">
         <v>690</v>
       </c>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E70" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
@@ -2625,7 +2656,7 @@
         <v>60</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D71">
         <v>700</v>
@@ -2643,7 +2674,7 @@
         <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D72">
         <v>710</v>
@@ -2661,7 +2692,7 @@
         <v>60</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D73">
         <v>720</v>
@@ -2679,7 +2710,7 @@
         <v>60</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D74">
         <v>730</v>
@@ -2697,7 +2728,7 @@
         <v>60</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D75">
         <v>740</v>
@@ -2715,7 +2746,7 @@
         <v>60</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D76">
         <v>750</v>
@@ -2733,7 +2764,7 @@
         <v>60</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D77">
         <v>760</v>
@@ -2751,7 +2782,7 @@
         <v>60</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D78">
         <v>770</v>
@@ -2768,8 +2799,8 @@
       <c r="B79">
         <v>60</v>
       </c>
-      <c r="C79" t="s">
-        <v>58</v>
+      <c r="C79" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D79">
         <v>780</v>
@@ -2786,8 +2817,8 @@
       <c r="B80">
         <v>60</v>
       </c>
-      <c r="C80" t="s">
-        <v>60</v>
+      <c r="C80" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="D80">
         <v>790</v>
@@ -2804,8 +2835,8 @@
       <c r="B81">
         <v>60</v>
       </c>
-      <c r="C81" t="s">
-        <v>61</v>
+      <c r="C81" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D81">
         <v>800</v>
@@ -2822,8 +2853,8 @@
       <c r="B82">
         <v>60</v>
       </c>
-      <c r="C82" t="s">
-        <v>62</v>
+      <c r="C82" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D82">
         <v>810</v>
@@ -2841,7 +2872,7 @@
         <v>60</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D83">
         <v>820</v>
@@ -2859,7 +2890,7 @@
         <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D84">
         <v>830</v>
@@ -2876,8 +2907,8 @@
       <c r="B85">
         <v>60</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>86</v>
+      <c r="C85" t="s">
+        <v>58</v>
       </c>
       <c r="D85">
         <v>840</v>
@@ -2894,8 +2925,8 @@
       <c r="B86">
         <v>60</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>87</v>
+      <c r="C86" t="s">
+        <v>60</v>
       </c>
       <c r="D86">
         <v>850</v>
@@ -2912,8 +2943,8 @@
       <c r="B87">
         <v>60</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>88</v>
+      <c r="C87" t="s">
+        <v>61</v>
       </c>
       <c r="D87">
         <v>860</v>
@@ -2930,8 +2961,8 @@
       <c r="B88">
         <v>60</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>89</v>
+      <c r="C88" t="s">
+        <v>62</v>
       </c>
       <c r="D88">
         <v>870</v>
@@ -2949,7 +2980,7 @@
         <v>60</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D89">
         <v>880</v>
@@ -2961,13 +2992,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B90">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D90">
         <v>890</v>
@@ -2979,13 +3010,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B91">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D91">
         <v>900</v>
@@ -2997,13 +3028,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B92">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D92">
         <v>910</v>
@@ -3015,13 +3046,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B93">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D93">
         <v>920</v>
@@ -3033,13 +3064,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B94">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D94">
         <v>930</v>
@@ -3051,13 +3082,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B95">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D95">
         <v>940</v>
@@ -3074,8 +3105,8 @@
       <c r="B96">
         <v>70</v>
       </c>
-      <c r="C96" t="s">
-        <v>72</v>
+      <c r="C96" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D96">
         <v>950</v>
@@ -3092,8 +3123,8 @@
       <c r="B97">
         <v>70</v>
       </c>
-      <c r="C97" t="s">
-        <v>73</v>
+      <c r="C97" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D97">
         <v>960</v>
@@ -3110,14 +3141,122 @@
       <c r="B98">
         <v>70</v>
       </c>
-      <c r="C98" t="s">
-        <v>74</v>
+      <c r="C98" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="D98">
         <v>970</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>59</v>
+      </c>
+      <c r="B99">
+        <v>70</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D99">
+        <v>980</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>59</v>
+      </c>
+      <c r="B100">
+        <v>70</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100">
+        <v>990</v>
+      </c>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>59</v>
+      </c>
+      <c r="B101">
+        <v>70</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D101">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>59</v>
+      </c>
+      <c r="B102">
+        <v>70</v>
+      </c>
+      <c r="C102" t="s">
+        <v>72</v>
+      </c>
+      <c r="D102">
+        <v>1010</v>
+      </c>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>59</v>
+      </c>
+      <c r="B103">
+        <v>70</v>
+      </c>
+      <c r="C103" t="s">
+        <v>73</v>
+      </c>
+      <c r="D103">
+        <v>1020</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>59</v>
+      </c>
+      <c r="B104">
+        <v>70</v>
+      </c>
+      <c r="C104" t="s">
+        <v>74</v>
+      </c>
+      <c r="D104">
+        <v>1030</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1" t="s">
         <v>42</v>
       </c>
     </row>
